--- a/outputs/cb_sales_monthly.xlsx
+++ b/outputs/cb_sales_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>31491.56258465315</v>
       </c>
       <c r="D2" t="n">
-        <v>33139.72407328534</v>
+        <v>33248.06777723086</v>
       </c>
       <c r="E2" t="n">
-        <v>40273.84815031487</v>
+        <v>40586.70538103889</v>
       </c>
       <c r="F2" t="n">
         <v>31491.56258465315</v>
@@ -583,10 +583,10 @@
         <v>31354.96960366206</v>
       </c>
       <c r="D3" t="n">
-        <v>27885.04635699334</v>
+        <v>27645.99067207389</v>
       </c>
       <c r="E3" t="n">
-        <v>35018.98365985998</v>
+        <v>34716.28194203196</v>
       </c>
       <c r="F3" t="n">
         <v>31354.96960366206</v>
@@ -636,10 +636,10 @@
         <v>31231.59529825075</v>
       </c>
       <c r="D4" t="n">
-        <v>27117.90030846337</v>
+        <v>26899.93093777544</v>
       </c>
       <c r="E4" t="n">
-        <v>34163.9890519589</v>
+        <v>34227.35128201192</v>
       </c>
       <c r="F4" t="n">
         <v>31231.59529825075</v>
@@ -689,10 +689,10 @@
         <v>31095.00232623449</v>
       </c>
       <c r="D5" t="n">
-        <v>27890.5127740038</v>
+        <v>27538.87574583363</v>
       </c>
       <c r="E5" t="n">
-        <v>35005.16269220904</v>
+        <v>34560.71148381332</v>
       </c>
       <c r="F5" t="n">
         <v>31095.00232623449</v>
@@ -742,10 +742,10 @@
         <v>30962.81557234233</v>
       </c>
       <c r="D6" t="n">
-        <v>27701.58423254003</v>
+        <v>27649.9440214313</v>
       </c>
       <c r="E6" t="n">
-        <v>34699.06890703484</v>
+        <v>34800.15369652487</v>
       </c>
       <c r="F6" t="n">
         <v>30962.81557234233</v>
@@ -795,10 +795,10 @@
         <v>30826.22259332043</v>
       </c>
       <c r="D7" t="n">
-        <v>23021.216666082</v>
+        <v>23125.64805624004</v>
       </c>
       <c r="E7" t="n">
-        <v>30377.985523225</v>
+        <v>30478.35660316772</v>
       </c>
       <c r="F7" t="n">
         <v>30826.22259332043</v>
@@ -848,10 +848,10 @@
         <v>30694.03584189744</v>
       </c>
       <c r="D8" t="n">
-        <v>26346.63108590181</v>
+        <v>26384.29494996534</v>
       </c>
       <c r="E8" t="n">
-        <v>33827.25791394144</v>
+        <v>33379.49669772055</v>
       </c>
       <c r="F8" t="n">
         <v>30694.03584189744</v>
@@ -901,10 +901,10 @@
         <v>30557.442865427</v>
       </c>
       <c r="D9" t="n">
-        <v>27812.76333504489</v>
+        <v>27797.95839851682</v>
       </c>
       <c r="E9" t="n">
-        <v>35031.89974888224</v>
+        <v>34680.02627240511</v>
       </c>
       <c r="F9" t="n">
         <v>30557.442865427</v>
@@ -954,10 +954,10 @@
         <v>30420.84988916751</v>
       </c>
       <c r="D10" t="n">
-        <v>30522.34203548649</v>
+        <v>30717.60940769129</v>
       </c>
       <c r="E10" t="n">
-        <v>37549.92271772632</v>
+        <v>37807.75646979537</v>
       </c>
       <c r="F10" t="n">
         <v>30420.84988916751</v>
@@ -1007,10 +1007,10 @@
         <v>30288.66313794865</v>
       </c>
       <c r="D11" t="n">
-        <v>30576.1508355893</v>
+        <v>30640.93692226416</v>
       </c>
       <c r="E11" t="n">
-        <v>37689.11529159808</v>
+        <v>37581.24113826832</v>
       </c>
       <c r="F11" t="n">
         <v>30288.66313794865</v>
@@ -1060,10 +1060,10 @@
         <v>30152.07016186053</v>
       </c>
       <c r="D12" t="n">
-        <v>28306.65485171427</v>
+        <v>28697.80671598881</v>
       </c>
       <c r="E12" t="n">
-        <v>35580.31017815762</v>
+        <v>35568.91764095915</v>
       </c>
       <c r="F12" t="n">
         <v>30152.07016186053</v>
@@ -1113,10 +1113,10 @@
         <v>30019.88340614497</v>
       </c>
       <c r="D13" t="n">
-        <v>29279.06684998293</v>
+        <v>29238.59017245798</v>
       </c>
       <c r="E13" t="n">
-        <v>36182.17114880534</v>
+        <v>36309.08568413794</v>
       </c>
       <c r="F13" t="n">
         <v>30019.88340614497</v>
@@ -1166,10 +1166,10 @@
         <v>29883.2904252389</v>
       </c>
       <c r="D14" t="n">
-        <v>29673.18906200712</v>
+        <v>29658.64760504219</v>
       </c>
       <c r="E14" t="n">
-        <v>37059.79604763475</v>
+        <v>36967.89284758856</v>
       </c>
       <c r="F14" t="n">
         <v>29883.2904252389</v>
@@ -1219,10 +1219,10 @@
         <v>29746.69743987366</v>
       </c>
       <c r="D15" t="n">
-        <v>25374.25941190173</v>
+        <v>25233.40336632521</v>
       </c>
       <c r="E15" t="n">
-        <v>31992.24242740003</v>
+        <v>32345.55122674844</v>
       </c>
       <c r="F15" t="n">
         <v>29746.69743987366</v>
@@ -1272,10 +1272,10 @@
         <v>29623.32313051152</v>
       </c>
       <c r="D16" t="n">
-        <v>27960.17382042852</v>
+        <v>27910.96561022964</v>
       </c>
       <c r="E16" t="n">
-        <v>34970.1168578156</v>
+        <v>35074.63847902563</v>
       </c>
       <c r="F16" t="n">
         <v>29623.32313051152</v>
@@ -1325,10 +1325,10 @@
         <v>29486.73014426347</v>
       </c>
       <c r="D17" t="n">
-        <v>24805.68892907915</v>
+        <v>24945.38689456764</v>
       </c>
       <c r="E17" t="n">
-        <v>31662.2822383547</v>
+        <v>31930.77200740202</v>
       </c>
       <c r="F17" t="n">
         <v>29486.73014426347</v>
@@ -1378,10 +1378,10 @@
         <v>29354.54338295</v>
       </c>
       <c r="D18" t="n">
-        <v>25468.71763841687</v>
+        <v>25160.6265242806</v>
       </c>
       <c r="E18" t="n">
-        <v>32489.8785966455</v>
+        <v>32579.84120452243</v>
       </c>
       <c r="F18" t="n">
         <v>29354.54338295</v>
@@ -1431,10 +1431,10 @@
         <v>29217.95039625941</v>
       </c>
       <c r="D19" t="n">
-        <v>23855.53928711954</v>
+        <v>24060.20692993898</v>
       </c>
       <c r="E19" t="n">
-        <v>30936.22872286083</v>
+        <v>31127.56122136166</v>
       </c>
       <c r="F19" t="n">
         <v>29217.95039625941</v>
@@ -1484,10 +1484,10 @@
         <v>29085.76363984207</v>
       </c>
       <c r="D20" t="n">
-        <v>23695.51399205767</v>
+        <v>24044.0287038839</v>
       </c>
       <c r="E20" t="n">
-        <v>31150.36643036644</v>
+        <v>31095.10587717254</v>
       </c>
       <c r="F20" t="n">
         <v>29085.76363984207</v>
@@ -1537,10 +1537,10 @@
         <v>28949.17065821082</v>
       </c>
       <c r="D21" t="n">
-        <v>24287.82842410943</v>
+        <v>24389.30743158611</v>
       </c>
       <c r="E21" t="n">
-        <v>31495.58458830373</v>
+        <v>31340.66636322853</v>
       </c>
       <c r="F21" t="n">
         <v>28949.17065821082</v>
@@ -1590,10 +1590,10 @@
         <v>28812.57768805797</v>
       </c>
       <c r="D22" t="n">
-        <v>29037.88089988367</v>
+        <v>28823.12862068369</v>
       </c>
       <c r="E22" t="n">
-        <v>36035.42734400836</v>
+        <v>36003.74824276907</v>
       </c>
       <c r="F22" t="n">
         <v>28812.57768805797</v>
@@ -1643,10 +1643,10 @@
         <v>28680.39094274876</v>
       </c>
       <c r="D23" t="n">
-        <v>30114.46810117903</v>
+        <v>30231.68891775946</v>
       </c>
       <c r="E23" t="n">
-        <v>37202.7490114851</v>
+        <v>37070.63543443027</v>
       </c>
       <c r="F23" t="n">
         <v>28680.39094274876</v>
@@ -1696,10 +1696,10 @@
         <v>28543.79797271256</v>
       </c>
       <c r="D24" t="n">
-        <v>27881.91956910371</v>
+        <v>27706.48624914341</v>
       </c>
       <c r="E24" t="n">
-        <v>34750.19381578532</v>
+        <v>34931.29783713335</v>
       </c>
       <c r="F24" t="n">
         <v>28543.79797271256</v>
@@ -1749,10 +1749,10 @@
         <v>28411.61122130133</v>
       </c>
       <c r="D25" t="n">
-        <v>27967.87246664727</v>
+        <v>28016.46535991415</v>
       </c>
       <c r="E25" t="n">
-        <v>35245.47063611828</v>
+        <v>34792.5304312403</v>
       </c>
       <c r="F25" t="n">
         <v>28411.61122130133</v>
@@ -1802,10 +1802,10 @@
         <v>28275.01824484307</v>
       </c>
       <c r="D26" t="n">
-        <v>26322.67918496952</v>
+        <v>26480.79731227401</v>
       </c>
       <c r="E26" t="n">
-        <v>33466.83887549148</v>
+        <v>33484.00546921776</v>
       </c>
       <c r="F26" t="n">
         <v>28275.01824484307</v>
@@ -1855,10 +1855,10 @@
         <v>28138.42527251254</v>
       </c>
       <c r="D27" t="n">
-        <v>23032.84840324552</v>
+        <v>22766.93200978114</v>
       </c>
       <c r="E27" t="n">
-        <v>29842.79200904874</v>
+        <v>30144.44834191761</v>
       </c>
       <c r="F27" t="n">
         <v>28138.42527251254</v>
@@ -1908,10 +1908,10 @@
         <v>28015.05097492367</v>
       </c>
       <c r="D28" t="n">
-        <v>28458.42651913373</v>
+        <v>28310.72610006101</v>
       </c>
       <c r="E28" t="n">
-        <v>35833.67049963924</v>
+        <v>35774.45974428872</v>
       </c>
       <c r="F28" t="n">
         <v>28015.05097492367</v>
@@ -1961,10 +1961,10 @@
         <v>27878.45799773906</v>
       </c>
       <c r="D29" t="n">
-        <v>21878.31549200914</v>
+        <v>22128.21112946455</v>
       </c>
       <c r="E29" t="n">
-        <v>29015.56732710098</v>
+        <v>29028.86800768854</v>
       </c>
       <c r="F29" t="n">
         <v>27878.45799773906</v>
@@ -2014,10 +2014,10 @@
         <v>27746.27124562491</v>
       </c>
       <c r="D30" t="n">
-        <v>23048.96302921328</v>
+        <v>22952.35504432564</v>
       </c>
       <c r="E30" t="n">
-        <v>30144.40589241694</v>
+        <v>30288.00345707477</v>
       </c>
       <c r="F30" t="n">
         <v>27746.27124562491</v>
@@ -2067,10 +2067,10 @@
         <v>27609.6782750022</v>
       </c>
       <c r="D31" t="n">
-        <v>24821.45937901246</v>
+        <v>24730.34306731383</v>
       </c>
       <c r="E31" t="n">
-        <v>31715.25208071577</v>
+        <v>32021.70207872805</v>
       </c>
       <c r="F31" t="n">
         <v>27609.6782750022</v>
@@ -2120,10 +2120,10 @@
         <v>27477.49152427883</v>
       </c>
       <c r="D32" t="n">
-        <v>21363.37373130988</v>
+        <v>21478.88240925592</v>
       </c>
       <c r="E32" t="n">
-        <v>28684.25610773362</v>
+        <v>28696.50411681054</v>
       </c>
       <c r="F32" t="n">
         <v>27477.49152427883</v>
@@ -2173,10 +2173,10 @@
         <v>27340.89854853134</v>
       </c>
       <c r="D33" t="n">
-        <v>20853.87233844758</v>
+        <v>20682.62811424251</v>
       </c>
       <c r="E33" t="n">
-        <v>28149.35806182338</v>
+        <v>27958.83970973704</v>
       </c>
       <c r="F33" t="n">
         <v>27340.89854853134</v>
@@ -2226,10 +2226,10 @@
         <v>27204.30557490907</v>
       </c>
       <c r="D34" t="n">
-        <v>27426.11501528633</v>
+        <v>27224.02585531519</v>
       </c>
       <c r="E34" t="n">
-        <v>34613.11266060411</v>
+        <v>34567.46937600346</v>
       </c>
       <c r="F34" t="n">
         <v>27204.30557490907</v>
@@ -2279,10 +2279,10 @@
         <v>27072.11882624236</v>
       </c>
       <c r="D35" t="n">
-        <v>29436.21509401962</v>
+        <v>29338.84990427478</v>
       </c>
       <c r="E35" t="n">
-        <v>36492.9809921396</v>
+        <v>36614.75389229177</v>
       </c>
       <c r="F35" t="n">
         <v>27072.11882624236</v>
@@ -2332,10 +2332,10 @@
         <v>26935.52585100482</v>
       </c>
       <c r="D36" t="n">
-        <v>26819.22187011281</v>
+        <v>26799.91761762976</v>
       </c>
       <c r="E36" t="n">
-        <v>34125.8799166209</v>
+        <v>33967.45801400796</v>
       </c>
       <c r="F36" t="n">
         <v>26935.52585100482</v>
@@ -2385,10 +2385,10 @@
         <v>26803.33910431241</v>
       </c>
       <c r="D37" t="n">
-        <v>26675.61738724044</v>
+        <v>26632.13235770365</v>
       </c>
       <c r="E37" t="n">
-        <v>33668.90930439699</v>
+        <v>33731.1779099261</v>
       </c>
       <c r="F37" t="n">
         <v>26803.33910431241</v>
@@ -2438,10 +2438,10 @@
         <v>26666.74613273026</v>
       </c>
       <c r="D38" t="n">
-        <v>22984.99916981344</v>
+        <v>22849.71144203194</v>
       </c>
       <c r="E38" t="n">
-        <v>30212.94704383926</v>
+        <v>30151.49085586182</v>
       </c>
       <c r="F38" t="n">
         <v>26666.74613273026</v>
@@ -2491,10 +2491,10 @@
         <v>26530.15316841811</v>
       </c>
       <c r="D39" t="n">
-        <v>20530.26156435938</v>
+        <v>20148.94101719915</v>
       </c>
       <c r="E39" t="n">
-        <v>27820.56892393895</v>
+        <v>27499.52060504218</v>
       </c>
       <c r="F39" t="n">
         <v>26530.15316841811</v>
@@ -2544,10 +2544,10 @@
         <v>26402.37265341643</v>
       </c>
       <c r="D40" t="n">
-        <v>19796.11439810168</v>
+        <v>19729.98226609816</v>
       </c>
       <c r="E40" t="n">
-        <v>27049.71939333811</v>
+        <v>27058.7855268518</v>
       </c>
       <c r="F40" t="n">
         <v>26402.37265341643</v>
@@ -2597,10 +2597,10 @@
         <v>26265.77968910427</v>
       </c>
       <c r="D41" t="n">
-        <v>24177.64173188242</v>
+        <v>24169.54676708078</v>
       </c>
       <c r="E41" t="n">
-        <v>31341.9725718025</v>
+        <v>31303.90126415046</v>
       </c>
       <c r="F41" t="n">
         <v>26265.77968910427</v>
@@ -2650,10 +2650,10 @@
         <v>26133.59294944736</v>
       </c>
       <c r="D42" t="n">
-        <v>23689.72901502146</v>
+        <v>23769.74728014431</v>
       </c>
       <c r="E42" t="n">
-        <v>30957.36209456068</v>
+        <v>30723.19245547686</v>
       </c>
       <c r="F42" t="n">
         <v>26133.59294944736</v>
@@ -2703,10 +2703,10 @@
         <v>25996.99998513521</v>
       </c>
       <c r="D43" t="n">
-        <v>16160.0210414655</v>
+        <v>16025.94066656167</v>
       </c>
       <c r="E43" t="n">
-        <v>23216.25351545036</v>
+        <v>22897.4028112982</v>
       </c>
       <c r="F43" t="n">
         <v>25996.99998513521</v>
@@ -2756,10 +2756,10 @@
         <v>25864.81324547829</v>
       </c>
       <c r="D44" t="n">
-        <v>21980.73654915012</v>
+        <v>22401.43067362847</v>
       </c>
       <c r="E44" t="n">
-        <v>29517.65919740905</v>
+        <v>29319.13370574107</v>
       </c>
       <c r="F44" t="n">
         <v>25864.81324547829</v>
@@ -2809,10 +2809,10 @@
         <v>25728.22028116615</v>
       </c>
       <c r="D45" t="n">
-        <v>24749.181363876</v>
+        <v>24639.77529186899</v>
       </c>
       <c r="E45" t="n">
-        <v>31703.38585606247</v>
+        <v>31713.50879033296</v>
       </c>
       <c r="F45" t="n">
         <v>25728.22028116615</v>
@@ -2862,10 +2862,10 @@
         <v>25591.627316854</v>
       </c>
       <c r="D46" t="n">
-        <v>25797.75129082334</v>
+        <v>25528.26723024895</v>
       </c>
       <c r="E46" t="n">
-        <v>32981.7472476734</v>
+        <v>32787.73969249913</v>
       </c>
       <c r="F46" t="n">
         <v>25591.627316854</v>
@@ -2915,10 +2915,10 @@
         <v>25459.44057719708</v>
       </c>
       <c r="D47" t="n">
-        <v>24666.67101796476</v>
+        <v>25051.21073527358</v>
       </c>
       <c r="E47" t="n">
-        <v>31712.86301427482</v>
+        <v>31875.61958848271</v>
       </c>
       <c r="F47" t="n">
         <v>25459.44057719708</v>
@@ -2968,10 +2968,10 @@
         <v>25322.84761288493</v>
       </c>
       <c r="D48" t="n">
-        <v>22586.49414596391</v>
+        <v>22502.77996490922</v>
       </c>
       <c r="E48" t="n">
-        <v>29875.26080190224</v>
+        <v>29673.39009417178</v>
       </c>
       <c r="F48" t="n">
         <v>25322.84761288493</v>
@@ -3021,10 +3021,10 @@
         <v>25190.66087322801</v>
       </c>
       <c r="D49" t="n">
-        <v>24441.28287639879</v>
+        <v>24235.76994289045</v>
       </c>
       <c r="E49" t="n">
-        <v>31245.89477852112</v>
+        <v>31186.36461960545</v>
       </c>
       <c r="F49" t="n">
         <v>25190.66087322801</v>
@@ -3074,10 +3074,10 @@
         <v>25054.06790094141</v>
       </c>
       <c r="D50" t="n">
-        <v>26620.00303903345</v>
+        <v>26564.85250511477</v>
       </c>
       <c r="E50" t="n">
-        <v>33571.82397875108</v>
+        <v>33421.59898170661</v>
       </c>
       <c r="F50" t="n">
         <v>25054.06790094141</v>
@@ -3127,10 +3127,10 @@
         <v>24917.47492865481</v>
       </c>
       <c r="D51" t="n">
-        <v>21547.54255244216</v>
+        <v>21266.04469415071</v>
       </c>
       <c r="E51" t="n">
-        <v>28761.67318922141</v>
+        <v>28459.44790810549</v>
       </c>
       <c r="F51" t="n">
         <v>24917.47492865481</v>
@@ -3180,10 +3180,10 @@
         <v>24794.10062719651</v>
       </c>
       <c r="D52" t="n">
-        <v>21001.48029720359</v>
+        <v>20458.16241183928</v>
       </c>
       <c r="E52" t="n">
-        <v>27863.54750682418</v>
+        <v>27951.32663824295</v>
       </c>
       <c r="F52" t="n">
         <v>24794.10062719651</v>
@@ -3233,10 +3233,10 @@
         <v>24657.50765045684</v>
       </c>
       <c r="D53" t="n">
-        <v>21329.22983210748</v>
+        <v>21361.63214798779</v>
       </c>
       <c r="E53" t="n">
-        <v>28329.33691740763</v>
+        <v>28344.49251479151</v>
       </c>
       <c r="F53" t="n">
         <v>24657.50765045684</v>
@@ -3286,10 +3286,10 @@
         <v>24525.32089877328</v>
       </c>
       <c r="D54" t="n">
-        <v>21131.64996951336</v>
+        <v>21427.86187901484</v>
       </c>
       <c r="E54" t="n">
-        <v>28262.80574490324</v>
+        <v>28520.05724442756</v>
       </c>
       <c r="F54" t="n">
         <v>24525.32089877328</v>
@@ -3339,10 +3339,10 @@
         <v>24388.72791045913</v>
       </c>
       <c r="D55" t="n">
-        <v>16669.96053980711</v>
+        <v>16860.34570144568</v>
       </c>
       <c r="E55" t="n">
-        <v>24013.83393118029</v>
+        <v>23883.95044894813</v>
       </c>
       <c r="F55" t="n">
         <v>24388.72791045913</v>
@@ -3392,10 +3392,10 @@
         <v>24256.54114757445</v>
       </c>
       <c r="D56" t="n">
-        <v>19870.62252164858</v>
+        <v>19480.98553796081</v>
       </c>
       <c r="E56" t="n">
-        <v>27042.58260075913</v>
+        <v>27242.91516609476</v>
       </c>
       <c r="F56" t="n">
         <v>24256.54114757445</v>
@@ -3445,10 +3445,10 @@
         <v>24119.94815926029</v>
       </c>
       <c r="D57" t="n">
-        <v>21293.17972061097</v>
+        <v>21138.75781882033</v>
       </c>
       <c r="E57" t="n">
-        <v>28283.83156142053</v>
+        <v>28630.17562377225</v>
       </c>
       <c r="F57" t="n">
         <v>24119.94815926029</v>
@@ -3498,10 +3498,10 @@
         <v>23983.35517094614</v>
       </c>
       <c r="D58" t="n">
-        <v>24168.79072911721</v>
+        <v>24023.1333382178</v>
       </c>
       <c r="E58" t="n">
-        <v>31247.71684355958</v>
+        <v>31275.98942247462</v>
       </c>
       <c r="F58" t="n">
         <v>23983.35517094614</v>
@@ -3551,10 +3551,10 @@
         <v>23851.16840806147</v>
       </c>
       <c r="D59" t="n">
-        <v>24311.19671116203</v>
+        <v>24201.63942883769</v>
       </c>
       <c r="E59" t="n">
-        <v>31501.81343241641</v>
+        <v>31553.38125837115</v>
       </c>
       <c r="F59" t="n">
         <v>23851.16840806147</v>
@@ -3604,10 +3604,10 @@
         <v>23714.5754197473</v>
       </c>
       <c r="D60" t="n">
-        <v>22166.50210532377</v>
+        <v>22082.89496787879</v>
       </c>
       <c r="E60" t="n">
-        <v>29142.72372272134</v>
+        <v>29209.96472103116</v>
       </c>
       <c r="F60" t="n">
         <v>23714.5754197473</v>
@@ -3657,10 +3657,10 @@
         <v>23582.38865686263</v>
       </c>
       <c r="D61" t="n">
-        <v>22997.16647215726</v>
+        <v>23121.97211003013</v>
       </c>
       <c r="E61" t="n">
-        <v>29857.85954641132</v>
+        <v>29887.09829941172</v>
       </c>
       <c r="F61" t="n">
         <v>23582.38865686263</v>
@@ -3710,10 +3710,10 @@
         <v>23445.79566854848</v>
       </c>
       <c r="D62" t="n">
-        <v>23258.86318614261</v>
+        <v>23285.53746233182</v>
       </c>
       <c r="E62" t="n">
-        <v>30079.46982949751</v>
+        <v>30244.49951120057</v>
       </c>
       <c r="F62" t="n">
         <v>23445.79566854848</v>
@@ -3763,10 +3763,10 @@
         <v>23309.20268023431</v>
       </c>
       <c r="D63" t="n">
-        <v>18763.62506881056</v>
+        <v>18926.81264467597</v>
       </c>
       <c r="E63" t="n">
-        <v>25856.77946243495</v>
+        <v>25926.3222863705</v>
       </c>
       <c r="F63" t="n">
         <v>23309.20268023431</v>
@@ -3816,10 +3816,10 @@
         <v>23185.82836820862</v>
       </c>
       <c r="D64" t="n">
-        <v>21559.13392268034</v>
+        <v>21760.66036697236</v>
       </c>
       <c r="E64" t="n">
-        <v>28419.79814371101</v>
+        <v>28522.78450830842</v>
       </c>
       <c r="F64" t="n">
         <v>23185.82836820862</v>
@@ -3869,10 +3869,10 @@
         <v>23049.23537989446</v>
       </c>
       <c r="D65" t="n">
-        <v>18334.27633995483</v>
+        <v>18475.04200936544</v>
       </c>
       <c r="E65" t="n">
-        <v>25492.52819225864</v>
+        <v>25604.49415374762</v>
       </c>
       <c r="F65" t="n">
         <v>23049.23537989446</v>
@@ -3922,16 +3922,16 @@
         <v>22917.04861700979</v>
       </c>
       <c r="D66" t="n">
-        <v>18768.47455077004</v>
+        <v>18980.82311719331</v>
       </c>
       <c r="E66" t="n">
-        <v>26038.81943018057</v>
+        <v>26104.84550105254</v>
       </c>
       <c r="F66" t="n">
-        <v>22917.04861477737</v>
+        <v>22917.04861387137</v>
       </c>
       <c r="G66" t="n">
-        <v>22917.04861875202</v>
+        <v>22917.04861826362</v>
       </c>
       <c r="H66" t="n">
         <v>-439.0503640429048</v>
@@ -3975,16 +3975,16 @@
         <v>22780.45562869563</v>
       </c>
       <c r="D67" t="n">
-        <v>17526.90378246166</v>
+        <v>17507.05359888212</v>
       </c>
       <c r="E67" t="n">
-        <v>24776.39794130955</v>
+        <v>24485.90307671555</v>
       </c>
       <c r="F67" t="n">
-        <v>22780.455616255</v>
+        <v>22780.45561369617</v>
       </c>
       <c r="G67" t="n">
-        <v>22780.45564202377</v>
+        <v>22780.45564019937</v>
       </c>
       <c r="H67" t="n">
         <v>-1765.711438796827</v>
@@ -4028,16 +4028,16 @@
         <v>22648.26886581096</v>
       </c>
       <c r="D68" t="n">
-        <v>17526.16703285649</v>
+        <v>17565.76952131977</v>
       </c>
       <c r="E68" t="n">
-        <v>24802.76642418084</v>
+        <v>24784.58765569699</v>
       </c>
       <c r="F68" t="n">
-        <v>22648.26883735163</v>
+        <v>22648.26883389958</v>
       </c>
       <c r="G68" t="n">
-        <v>22648.26889296446</v>
+        <v>22648.2688919849</v>
       </c>
       <c r="H68" t="n">
         <v>-1549.51752420223</v>
@@ -4081,16 +4081,16 @@
         <v>22511.6758774968</v>
       </c>
       <c r="D69" t="n">
-        <v>17947.08213038389</v>
+        <v>17990.76057627707</v>
       </c>
       <c r="E69" t="n">
-        <v>24759.12877864077</v>
+        <v>25127.48564905809</v>
       </c>
       <c r="F69" t="n">
-        <v>22511.67583279906</v>
+        <v>22511.6758248878</v>
       </c>
       <c r="G69" t="n">
-        <v>22511.6759240965</v>
+        <v>22511.67592126621</v>
       </c>
       <c r="H69" t="n">
         <v>-1034.296734933908</v>
@@ -4134,16 +4134,16 @@
         <v>22375.08288918264</v>
       </c>
       <c r="D70" t="n">
-        <v>22578.90524027189</v>
+        <v>22474.34168642803</v>
       </c>
       <c r="E70" t="n">
-        <v>29703.96200780556</v>
+        <v>29941.9456072631</v>
       </c>
       <c r="F70" t="n">
-        <v>22375.08281742361</v>
+        <v>22375.08281104768</v>
       </c>
       <c r="G70" t="n">
-        <v>22375.08295421866</v>
+        <v>22375.08295587653</v>
       </c>
       <c r="H70" t="n">
         <v>3715.471455048777</v>
@@ -4187,16 +4187,16 @@
         <v>22242.89612629797</v>
       </c>
       <c r="D71" t="n">
-        <v>23541.51957399023</v>
+        <v>23547.549911075</v>
       </c>
       <c r="E71" t="n">
-        <v>30646.63004849448</v>
+        <v>30687.5932145277</v>
       </c>
       <c r="F71" t="n">
-        <v>22242.89603120069</v>
+        <v>22242.89601989042</v>
       </c>
       <c r="G71" t="n">
-        <v>22242.89621696847</v>
+        <v>22242.89621427313</v>
       </c>
       <c r="H71" t="n">
         <v>4891.14705757122</v>
@@ -4240,16 +4240,16 @@
         <v>22106.30313798381</v>
       </c>
       <c r="D72" t="n">
-        <v>21138.60686897144</v>
+        <v>21286.37637785007</v>
       </c>
       <c r="E72" t="n">
-        <v>28388.81637742136</v>
+        <v>28398.94688455806</v>
       </c>
       <c r="F72" t="n">
-        <v>22106.30301411113</v>
+        <v>22106.30299727738</v>
       </c>
       <c r="G72" t="n">
-        <v>22106.30325301468</v>
+        <v>22106.30325091353</v>
       </c>
       <c r="H72" t="n">
         <v>2752.015134289717</v>
@@ -4293,16 +4293,16 @@
         <v>21974.11637509914</v>
       </c>
       <c r="D73" t="n">
-        <v>21347.93267785205</v>
+        <v>21186.19033433362</v>
       </c>
       <c r="E73" t="n">
-        <v>28463.05208388053</v>
+        <v>28468.79811003865</v>
       </c>
       <c r="F73" t="n">
-        <v>21974.11622153955</v>
+        <v>21974.11620631512</v>
       </c>
       <c r="G73" t="n">
-        <v>21974.11652055091</v>
+        <v>21974.11651476284</v>
       </c>
       <c r="H73" t="n">
         <v>3027.787596443743</v>
@@ -4346,16 +4346,16 @@
         <v>21837.52338678498</v>
       </c>
       <c r="D74" t="n">
-        <v>19781.51819201002</v>
+        <v>19947.61887198354</v>
       </c>
       <c r="E74" t="n">
-        <v>27080.42243853343</v>
+        <v>27145.5834314506</v>
       </c>
       <c r="F74" t="n">
-        <v>21837.52320085913</v>
+        <v>21837.52318311798</v>
       </c>
       <c r="G74" t="n">
-        <v>21837.52356481393</v>
+        <v>21837.5235559028</v>
       </c>
       <c r="H74" t="n">
         <v>1639.748683594727</v>
@@ -4399,16 +4399,16 @@
         <v>21700.93039847082</v>
       </c>
       <c r="D75" t="n">
-        <v>16399.48431521854</v>
+        <v>16506.06239505171</v>
       </c>
       <c r="E75" t="n">
-        <v>23549.5720106138</v>
+        <v>23329.01877503649</v>
       </c>
       <c r="F75" t="n">
-        <v>21700.93017621664</v>
+        <v>21700.9301605196</v>
       </c>
       <c r="G75" t="n">
-        <v>21700.9306074333</v>
+        <v>21700.93060138594</v>
       </c>
       <c r="H75" t="n">
         <v>-1748.207039583212</v>
@@ -4452,16 +4452,16 @@
         <v>21577.55608644513</v>
       </c>
       <c r="D76" t="n">
-        <v>22176.93728222303</v>
+        <v>22202.15584186268</v>
       </c>
       <c r="E76" t="n">
-        <v>29330.99775074657</v>
+        <v>29083.06273686133</v>
       </c>
       <c r="F76" t="n">
-        <v>21577.55583439341</v>
+        <v>21577.55581113074</v>
       </c>
       <c r="G76" t="n">
-        <v>21577.55632508091</v>
+        <v>21577.55631904279</v>
       </c>
       <c r="H76" t="n">
         <v>4159.301547186139</v>
@@ -4505,16 +4505,16 @@
         <v>21440.96309813097</v>
       </c>
       <c r="D77" t="n">
-        <v>15515.95132524415</v>
+        <v>15470.5363456548</v>
       </c>
       <c r="E77" t="n">
-        <v>22867.14653835602</v>
+        <v>22557.1210485038</v>
       </c>
       <c r="F77" t="n">
-        <v>21440.96280171767</v>
+        <v>21440.96278240829</v>
       </c>
       <c r="G77" t="n">
-        <v>21440.96337403516</v>
+        <v>21440.96336486013</v>
       </c>
       <c r="H77" t="n">
         <v>-2323.261571741055</v>
@@ -4558,16 +4558,16 @@
         <v>21308.7763352463</v>
       </c>
       <c r="D78" t="n">
-        <v>16730.34530369594</v>
+        <v>16528.77686595895</v>
       </c>
       <c r="E78" t="n">
-        <v>23920.23490310104</v>
+        <v>23710.23865767073</v>
       </c>
       <c r="F78" t="n">
-        <v>21308.77599194143</v>
+        <v>21308.77598009062</v>
       </c>
       <c r="G78" t="n">
-        <v>21308.77664463105</v>
+        <v>21308.77663738684</v>
       </c>
       <c r="H78" t="n">
         <v>-1191.384084067226</v>
@@ -4611,16 +4611,16 @@
         <v>21172.18334693214</v>
       </c>
       <c r="D79" t="n">
-        <v>18430.60225173216</v>
+        <v>18386.68130560281</v>
       </c>
       <c r="E79" t="n">
-        <v>25266.8614136653</v>
+        <v>25215.9321580395</v>
       </c>
       <c r="F79" t="n">
-        <v>21172.18295564337</v>
+        <v>21172.18295437102</v>
       </c>
       <c r="G79" t="n">
-        <v>21172.18369264062</v>
+        <v>21172.18368404189</v>
       </c>
       <c r="H79" t="n">
         <v>564.3714985656493</v>
@@ -4664,16 +4664,16 @@
         <v>21039.99658404747</v>
       </c>
       <c r="D80" t="n">
-        <v>15062.52335717835</v>
+        <v>15193.06894023799</v>
       </c>
       <c r="E80" t="n">
-        <v>22367.99872084906</v>
+        <v>22085.43851860472</v>
       </c>
       <c r="F80" t="n">
-        <v>21039.9961502376</v>
+        <v>21039.99614560243</v>
       </c>
       <c r="G80" t="n">
-        <v>21039.99696582986</v>
+        <v>21039.99695613173</v>
       </c>
       <c r="H80" t="n">
         <v>-2380.936395592039</v>
@@ -4717,16 +4717,16 @@
         <v>20903.40359573331</v>
       </c>
       <c r="D81" t="n">
-        <v>14703.60053070124</v>
+        <v>14642.88504727538</v>
       </c>
       <c r="E81" t="n">
-        <v>21649.08634958817</v>
+        <v>21633.77695952842</v>
       </c>
       <c r="F81" t="n">
-        <v>20903.40311557821</v>
+        <v>20903.40311389619</v>
       </c>
       <c r="G81" t="n">
-        <v>20903.40402453949</v>
+        <v>20903.40400563076</v>
       </c>
       <c r="H81" t="n">
         <v>-2803.968334285914</v>
@@ -4770,16 +4770,16 @@
         <v>20766.81060741915</v>
       </c>
       <c r="D82" t="n">
-        <v>20926.58325870183</v>
+        <v>20718.66418848261</v>
       </c>
       <c r="E82" t="n">
-        <v>28008.3245490423</v>
+        <v>27844.41635118192</v>
       </c>
       <c r="F82" t="n">
-        <v>20766.81009918727</v>
+        <v>20766.81006940261</v>
       </c>
       <c r="G82" t="n">
-        <v>20766.81107643174</v>
+        <v>20766.81106977259</v>
       </c>
       <c r="H82" t="n">
         <v>3760.407156897782</v>

--- a/outputs/cb_sales_monthly.xlsx
+++ b/outputs/cb_sales_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42736</v>
+        <v>42979</v>
       </c>
       <c r="C2" t="n">
-        <v>31491.56258465315</v>
+        <v>28768.24784755049</v>
       </c>
       <c r="D2" t="n">
-        <v>33248.06777723086</v>
+        <v>27976.18287506613</v>
       </c>
       <c r="E2" t="n">
-        <v>40586.70538103889</v>
+        <v>32285.50074661004</v>
       </c>
       <c r="F2" t="n">
-        <v>31491.56258465315</v>
+        <v>28768.24784755049</v>
       </c>
       <c r="G2" t="n">
-        <v>31491.56258465315</v>
+        <v>28768.24784755049</v>
       </c>
       <c r="H2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="I2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="J2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="K2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="L2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="M2" t="n">
-        <v>5138.623590451576</v>
+        <v>1369.937183513699</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>36630.18617510473</v>
+        <v>30138.18503106419</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42767</v>
+        <v>43009</v>
       </c>
       <c r="C3" t="n">
-        <v>31354.96960366206</v>
+        <v>28791.31945879629</v>
       </c>
       <c r="D3" t="n">
-        <v>27645.99067207389</v>
+        <v>27593.82951359873</v>
       </c>
       <c r="E3" t="n">
-        <v>34716.28194203196</v>
+        <v>32377.02684760368</v>
       </c>
       <c r="F3" t="n">
-        <v>31354.96960366206</v>
+        <v>28791.31945879629</v>
       </c>
       <c r="G3" t="n">
-        <v>31354.96960366206</v>
+        <v>28791.31945879629</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.680033444539308</v>
+        <v>1164.514141485366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31352.28957021752</v>
+        <v>29955.83360028165</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42795</v>
+        <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>31231.59529825075</v>
+        <v>28815.16012375028</v>
       </c>
       <c r="D4" t="n">
-        <v>26899.93093777544</v>
+        <v>25458.11924809462</v>
       </c>
       <c r="E4" t="n">
-        <v>34227.35128201192</v>
+        <v>30165.2980917834</v>
       </c>
       <c r="F4" t="n">
-        <v>31231.59529825075</v>
+        <v>28815.16012375028</v>
       </c>
       <c r="G4" t="n">
-        <v>31231.59529825075</v>
+        <v>28815.16012375028</v>
       </c>
       <c r="H4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="I4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="J4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="K4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="L4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="M4" t="n">
-        <v>-654.2708290522507</v>
+        <v>-1106.51302129301</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>30577.3244691985</v>
+        <v>27708.64710245727</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42826</v>
+        <v>43070</v>
       </c>
       <c r="C5" t="n">
-        <v>31095.00232623449</v>
+        <v>28838.23173489661</v>
       </c>
       <c r="D5" t="n">
-        <v>27538.87574583363</v>
+        <v>23960.23221725048</v>
       </c>
       <c r="E5" t="n">
-        <v>34560.71148381332</v>
+        <v>28391.51050431228</v>
       </c>
       <c r="F5" t="n">
-        <v>31095.00232623449</v>
+        <v>28838.23173489661</v>
       </c>
       <c r="G5" t="n">
-        <v>31095.00232623449</v>
+        <v>28838.23173489661</v>
       </c>
       <c r="H5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="I5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="J5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="K5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="L5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="M5" t="n">
-        <v>210.5734066332272</v>
+        <v>-2717.259583747817</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>31305.57573286771</v>
+        <v>26120.97215114879</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42856</v>
+        <v>43101</v>
       </c>
       <c r="C6" t="n">
-        <v>30962.81557234233</v>
+        <v>28862.07239974782</v>
       </c>
       <c r="D6" t="n">
-        <v>27649.9440214313</v>
+        <v>26542.07501285526</v>
       </c>
       <c r="E6" t="n">
-        <v>34800.15369652487</v>
+        <v>30807.62774424535</v>
       </c>
       <c r="F6" t="n">
-        <v>30962.81557234233</v>
+        <v>28862.07239974782</v>
       </c>
       <c r="G6" t="n">
-        <v>30962.81557234233</v>
+        <v>28862.07239974782</v>
       </c>
       <c r="H6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="I6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="J6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="K6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="L6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="M6" t="n">
-        <v>348.0301478034487</v>
+        <v>-240.3842872837419</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31310.84572014578</v>
+        <v>28621.68811246407</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42887</v>
+        <v>43132</v>
       </c>
       <c r="C7" t="n">
-        <v>30826.22259332043</v>
+        <v>28885.913064388</v>
       </c>
       <c r="D7" t="n">
-        <v>23125.64805624004</v>
+        <v>22616.36858159586</v>
       </c>
       <c r="E7" t="n">
-        <v>30478.35660316772</v>
+        <v>27017.50136126902</v>
       </c>
       <c r="F7" t="n">
-        <v>30826.22259332043</v>
+        <v>28885.913064388</v>
       </c>
       <c r="G7" t="n">
-        <v>30826.22259332043</v>
+        <v>28885.913064388</v>
       </c>
       <c r="H7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="I7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="J7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="K7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="L7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="M7" t="n">
-        <v>-4099.656601861712</v>
+        <v>-4045.4863365214</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26726.56599145872</v>
+        <v>24840.4267278666</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42917</v>
+        <v>43160</v>
       </c>
       <c r="C8" t="n">
-        <v>30694.03584189744</v>
+        <v>28907.44656795449</v>
       </c>
       <c r="D8" t="n">
-        <v>26384.29494996534</v>
+        <v>26896.52733817757</v>
       </c>
       <c r="E8" t="n">
-        <v>33379.49669772055</v>
+        <v>31423.84670002825</v>
       </c>
       <c r="F8" t="n">
-        <v>30694.03584189744</v>
+        <v>28907.44656795449</v>
       </c>
       <c r="G8" t="n">
-        <v>30694.03584189744</v>
+        <v>28907.44656795449</v>
       </c>
       <c r="H8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="I8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="J8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="K8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="L8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="M8" t="n">
-        <v>-768.7050113167002</v>
+        <v>308.7750717392992</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>29925.33083058074</v>
+        <v>29216.22163969379</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42948</v>
+        <v>43191</v>
       </c>
       <c r="C9" t="n">
-        <v>30557.442865427</v>
+        <v>28931.2872326174</v>
       </c>
       <c r="D9" t="n">
-        <v>27797.95839851682</v>
+        <v>25712.36115102737</v>
       </c>
       <c r="E9" t="n">
-        <v>34680.02627240511</v>
+        <v>30135.7732237036</v>
       </c>
       <c r="F9" t="n">
-        <v>30557.442865427</v>
+        <v>28931.2872326174</v>
       </c>
       <c r="G9" t="n">
-        <v>30557.442865427</v>
+        <v>28931.2872326174</v>
       </c>
       <c r="H9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="I9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="J9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="K9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="L9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="M9" t="n">
-        <v>745.6335709808479</v>
+        <v>-982.375779972571</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31303.07643640785</v>
+        <v>27948.91145264483</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42979</v>
+        <v>43221</v>
       </c>
       <c r="C10" t="n">
-        <v>30420.84988916751</v>
+        <v>28954.35884342018</v>
       </c>
       <c r="D10" t="n">
-        <v>30717.60940769129</v>
+        <v>24990.16877027519</v>
       </c>
       <c r="E10" t="n">
-        <v>37807.75646979537</v>
+        <v>29494.73501463628</v>
       </c>
       <c r="F10" t="n">
-        <v>30420.84988916751</v>
+        <v>28954.35884342018</v>
       </c>
       <c r="G10" t="n">
-        <v>30420.84988916751</v>
+        <v>28954.35884342018</v>
       </c>
       <c r="H10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="I10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="J10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="K10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="L10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="M10" t="n">
-        <v>3714.535983728468</v>
+        <v>-1650.786108835733</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34135.38587289597</v>
+        <v>27303.57273458445</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43009</v>
+        <v>43252</v>
       </c>
       <c r="C11" t="n">
-        <v>30288.66313794865</v>
+        <v>28978.19950791638</v>
       </c>
       <c r="D11" t="n">
-        <v>30640.93692226416</v>
+        <v>25260.40929163879</v>
       </c>
       <c r="E11" t="n">
-        <v>37581.24113826832</v>
+        <v>29688.14920451292</v>
       </c>
       <c r="F11" t="n">
-        <v>30288.66313794865</v>
+        <v>28978.19950791638</v>
       </c>
       <c r="G11" t="n">
-        <v>30288.66313794865</v>
+        <v>28978.19950791638</v>
       </c>
       <c r="H11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="I11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="J11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="K11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="L11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="M11" t="n">
-        <v>3887.16187157933</v>
+        <v>-1572.960231633772</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>34175.82500952798</v>
+        <v>27405.23927628261</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43040</v>
+        <v>43282</v>
       </c>
       <c r="C12" t="n">
-        <v>30152.07016186053</v>
+        <v>29001.27111870974</v>
       </c>
       <c r="D12" t="n">
-        <v>28697.80671598881</v>
+        <v>27972.84696452868</v>
       </c>
       <c r="E12" t="n">
-        <v>35568.91764095915</v>
+        <v>32725.52685522352</v>
       </c>
       <c r="F12" t="n">
-        <v>30152.07016186053</v>
+        <v>29001.27111870974</v>
       </c>
       <c r="G12" t="n">
-        <v>30152.07016186053</v>
+        <v>29001.27111870974</v>
       </c>
       <c r="H12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="I12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="J12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="K12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="L12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="M12" t="n">
-        <v>1884.402593733531</v>
+        <v>1206.050876696877</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>32036.47275559406</v>
+        <v>30207.32199540662</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43070</v>
+        <v>43313</v>
       </c>
       <c r="C13" t="n">
-        <v>30019.88340614497</v>
+        <v>29025.1117831962</v>
       </c>
       <c r="D13" t="n">
-        <v>29238.59017245798</v>
+        <v>29261.54383760864</v>
       </c>
       <c r="E13" t="n">
-        <v>36309.08568413794</v>
+        <v>33742.77499007913</v>
       </c>
       <c r="F13" t="n">
-        <v>30019.88340614497</v>
+        <v>29025.1117831962</v>
       </c>
       <c r="G13" t="n">
-        <v>30019.88340614497</v>
+        <v>29025.1117831962</v>
       </c>
       <c r="H13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="I13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="J13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="K13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="L13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="M13" t="n">
-        <v>2771.039176556835</v>
+        <v>2403.957305932158</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32790.92258270181</v>
+        <v>31429.06908912836</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43101</v>
+        <v>43344</v>
       </c>
       <c r="C14" t="n">
-        <v>29883.2904252389</v>
+        <v>29048.95244748817</v>
       </c>
       <c r="D14" t="n">
-        <v>29658.64760504219</v>
+        <v>27290.82340943377</v>
       </c>
       <c r="E14" t="n">
-        <v>36967.89284758856</v>
+        <v>31886.61041859235</v>
       </c>
       <c r="F14" t="n">
-        <v>29883.2904252389</v>
+        <v>29048.95244748817</v>
       </c>
       <c r="G14" t="n">
-        <v>29883.2904252389</v>
+        <v>29048.95244748817</v>
       </c>
       <c r="H14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="I14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="J14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="K14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="L14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="M14" t="n">
-        <v>3396.794425745235</v>
+        <v>550.5825000898549</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33280.08485098413</v>
+        <v>29599.53494757803</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43132</v>
+        <v>43374</v>
       </c>
       <c r="C15" t="n">
-        <v>29746.69743987366</v>
+        <v>29072.02405821531</v>
       </c>
       <c r="D15" t="n">
-        <v>25233.40336632521</v>
+        <v>27902.04459199317</v>
       </c>
       <c r="E15" t="n">
-        <v>32345.55122674844</v>
+        <v>32640.01907642913</v>
       </c>
       <c r="F15" t="n">
-        <v>29746.69743987366</v>
+        <v>29072.02405821531</v>
       </c>
       <c r="G15" t="n">
-        <v>29746.69743987366</v>
+        <v>29072.02405821531</v>
       </c>
       <c r="H15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="I15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="J15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="K15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="L15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="M15" t="n">
-        <v>-899.4919008508558</v>
+        <v>1155.020371026854</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>28847.20553902281</v>
+        <v>30227.04442924216</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43160</v>
+        <v>43405</v>
       </c>
       <c r="C16" t="n">
-        <v>29623.32313051152</v>
+        <v>29095.86472263333</v>
       </c>
       <c r="D16" t="n">
-        <v>27910.96561022964</v>
+        <v>25638.09829106596</v>
       </c>
       <c r="E16" t="n">
-        <v>35074.63847902563</v>
+        <v>30088.66407132795</v>
       </c>
       <c r="F16" t="n">
-        <v>29623.32313051152</v>
+        <v>29095.86472263333</v>
       </c>
       <c r="G16" t="n">
-        <v>29623.32313051152</v>
+        <v>29095.86472263333</v>
       </c>
       <c r="H16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="I16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="J16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="K16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="L16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="M16" t="n">
-        <v>1756.344042805653</v>
+        <v>-1197.219511236749</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>31379.66717331717</v>
+        <v>27898.64521139659</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43191</v>
+        <v>43435</v>
       </c>
       <c r="C17" t="n">
-        <v>29486.73014426347</v>
+        <v>29118.93633313958</v>
       </c>
       <c r="D17" t="n">
-        <v>24945.38689456764</v>
+        <v>23629.427584986</v>
       </c>
       <c r="E17" t="n">
-        <v>31930.77200740202</v>
+        <v>28085.75808917939</v>
       </c>
       <c r="F17" t="n">
-        <v>29486.73014426347</v>
+        <v>29118.93633313958</v>
       </c>
       <c r="G17" t="n">
-        <v>29486.73014426347</v>
+        <v>29118.93633313958</v>
       </c>
       <c r="H17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="I17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="J17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="K17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="L17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="M17" t="n">
-        <v>-1040.253473122376</v>
+        <v>-3265.031945310967</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>28446.4766711411</v>
+        <v>25853.90438782861</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43221</v>
+        <v>43466</v>
       </c>
       <c r="C18" t="n">
-        <v>29354.54338295</v>
+        <v>29142.77699732937</v>
       </c>
       <c r="D18" t="n">
-        <v>25160.6265242806</v>
+        <v>27609.29161750436</v>
       </c>
       <c r="E18" t="n">
-        <v>32579.84120452243</v>
+        <v>32056.54493987642</v>
       </c>
       <c r="F18" t="n">
-        <v>29354.54338295</v>
+        <v>29142.77699732937</v>
       </c>
       <c r="G18" t="n">
-        <v>29354.54338295</v>
+        <v>29142.77699732937</v>
       </c>
       <c r="H18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="I18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="J18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="K18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="L18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="M18" t="n">
-        <v>-439.0503640355899</v>
+        <v>634.3604497694745</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28915.49301891441</v>
+        <v>29777.13744709885</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43252</v>
+        <v>43497</v>
       </c>
       <c r="C19" t="n">
-        <v>29217.95039625941</v>
+        <v>29166.61766154774</v>
       </c>
       <c r="D19" t="n">
-        <v>24060.20692993898</v>
+        <v>23757.79425114863</v>
       </c>
       <c r="E19" t="n">
-        <v>31127.56122136166</v>
+        <v>28197.2427159757</v>
       </c>
       <c r="F19" t="n">
-        <v>29217.95039625941</v>
+        <v>29166.61766154774</v>
       </c>
       <c r="G19" t="n">
-        <v>29217.95039625941</v>
+        <v>29166.61766154774</v>
       </c>
       <c r="H19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="I19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="J19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="K19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="L19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="M19" t="n">
-        <v>-1765.711438790037</v>
+        <v>-3077.880178001072</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27452.23895746937</v>
+        <v>26088.73748354667</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282</v>
+        <v>43525</v>
       </c>
       <c r="C20" t="n">
-        <v>29085.76363984207</v>
+        <v>29188.15116471271</v>
       </c>
       <c r="D20" t="n">
-        <v>24044.0287038839</v>
+        <v>26275.79020906781</v>
       </c>
       <c r="E20" t="n">
-        <v>31095.10587717254</v>
+        <v>30743.97460093618</v>
       </c>
       <c r="F20" t="n">
-        <v>29085.76363984207</v>
+        <v>29188.15116471271</v>
       </c>
       <c r="G20" t="n">
-        <v>29085.76363984207</v>
+        <v>29188.15116471271</v>
       </c>
       <c r="H20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="I20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="J20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="K20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="L20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="M20" t="n">
-        <v>-1549.517524205803</v>
+        <v>-659.3254028098113</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>27536.24611563627</v>
+        <v>28528.8257619029</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43313</v>
+        <v>43556</v>
       </c>
       <c r="C21" t="n">
-        <v>28949.17065821082</v>
+        <v>29211.99182908581</v>
       </c>
       <c r="D21" t="n">
-        <v>24389.30743158611</v>
+        <v>25003.02239095129</v>
       </c>
       <c r="E21" t="n">
-        <v>31340.66636322853</v>
+        <v>29659.09410835695</v>
       </c>
       <c r="F21" t="n">
-        <v>28949.17065821082</v>
+        <v>29211.99182908581</v>
       </c>
       <c r="G21" t="n">
-        <v>28949.17065821082</v>
+        <v>29211.99182908581</v>
       </c>
       <c r="H21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="I21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="J21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="K21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="L21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="M21" t="n">
-        <v>-1034.296734935338</v>
+        <v>-1953.579791111077</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27914.87392327548</v>
+        <v>27258.41203797474</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43344</v>
+        <v>43586</v>
       </c>
       <c r="C22" t="n">
-        <v>28812.57768805797</v>
+        <v>29235.06343984974</v>
       </c>
       <c r="D22" t="n">
-        <v>28823.12862068369</v>
+        <v>26048.89295218696</v>
       </c>
       <c r="E22" t="n">
-        <v>36003.74824276907</v>
+        <v>30909.68355590256</v>
       </c>
       <c r="F22" t="n">
-        <v>28812.57768805797</v>
+        <v>29235.06343984974</v>
       </c>
       <c r="G22" t="n">
-        <v>28812.57768805797</v>
+        <v>29235.06343984974</v>
       </c>
       <c r="H22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="I22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="J22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="K22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="L22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="M22" t="n">
-        <v>3715.471455038921</v>
+        <v>-763.9431806094561</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32528.04914309689</v>
+        <v>28471.12025924028</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43374</v>
+        <v>43617</v>
       </c>
       <c r="C23" t="n">
-        <v>28680.39094274876</v>
+        <v>29258.9041043058</v>
       </c>
       <c r="D23" t="n">
-        <v>30231.68891775946</v>
+        <v>25202.37925620392</v>
       </c>
       <c r="E23" t="n">
-        <v>37070.63543443027</v>
+        <v>29534.10434741023</v>
       </c>
       <c r="F23" t="n">
-        <v>28680.39094274876</v>
+        <v>29258.9041043058</v>
       </c>
       <c r="G23" t="n">
-        <v>28680.39094274876</v>
+        <v>29258.9041043058</v>
       </c>
       <c r="H23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="I23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="J23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="K23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="L23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="M23" t="n">
-        <v>4891.147057564651</v>
+        <v>-1956.7839805396</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>33571.53800031341</v>
+        <v>27302.1201237662</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43405</v>
+        <v>43647</v>
       </c>
       <c r="C24" t="n">
-        <v>28543.79797271256</v>
+        <v>29281.97571493009</v>
       </c>
       <c r="D24" t="n">
-        <v>27706.48624914341</v>
+        <v>28897.35725969414</v>
       </c>
       <c r="E24" t="n">
-        <v>34931.29783713335</v>
+        <v>33577.93685979103</v>
       </c>
       <c r="F24" t="n">
-        <v>28543.79797271256</v>
+        <v>29281.97571493009</v>
       </c>
       <c r="G24" t="n">
-        <v>28543.79797271256</v>
+        <v>29281.97571493009</v>
       </c>
       <c r="H24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="I24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="J24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="K24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="L24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="M24" t="n">
-        <v>2752.015134287337</v>
+        <v>1884.682525145386</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>31295.8131069999</v>
+        <v>31166.65824007547</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43435</v>
+        <v>43678</v>
       </c>
       <c r="C25" t="n">
-        <v>28411.61122130133</v>
+        <v>29305.81637924187</v>
       </c>
       <c r="D25" t="n">
-        <v>28016.46535991415</v>
+        <v>29925.1018269216</v>
       </c>
       <c r="E25" t="n">
-        <v>34792.5304312403</v>
+        <v>34484.0046992507</v>
       </c>
       <c r="F25" t="n">
-        <v>28411.61122130133</v>
+        <v>29305.81637924187</v>
       </c>
       <c r="G25" t="n">
-        <v>28411.61122130133</v>
+        <v>29305.81637924187</v>
       </c>
       <c r="H25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="I25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="J25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="K25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="L25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="M25" t="n">
-        <v>3027.787596450784</v>
+        <v>2858.549851045075</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>31439.39881775212</v>
+        <v>32164.36623028694</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43466</v>
+        <v>43709</v>
       </c>
       <c r="C26" t="n">
-        <v>28275.01824484307</v>
+        <v>29329.65704367076</v>
       </c>
       <c r="D26" t="n">
-        <v>26480.79731227401</v>
+        <v>26666.96198177258</v>
       </c>
       <c r="E26" t="n">
-        <v>33484.00546921776</v>
+        <v>31389.16477253936</v>
       </c>
       <c r="F26" t="n">
-        <v>28275.01824484307</v>
+        <v>29329.65704367076</v>
       </c>
       <c r="G26" t="n">
-        <v>28275.01824484307</v>
+        <v>29329.65704367076</v>
       </c>
       <c r="H26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="I26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="J26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="K26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="L26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="M26" t="n">
-        <v>1639.748683592455</v>
+        <v>-281.1251173396167</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>29914.76692843553</v>
+        <v>29048.53192633115</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43497</v>
+        <v>43739</v>
       </c>
       <c r="C27" t="n">
-        <v>28138.42527251254</v>
+        <v>29352.72865440841</v>
       </c>
       <c r="D27" t="n">
-        <v>22766.93200978114</v>
+        <v>28074.43049479136</v>
       </c>
       <c r="E27" t="n">
-        <v>30144.44834191761</v>
+        <v>33071.61701875971</v>
       </c>
       <c r="F27" t="n">
-        <v>28138.42527251254</v>
+        <v>29352.72865440841</v>
       </c>
       <c r="G27" t="n">
-        <v>28138.42527251254</v>
+        <v>29352.72865440841</v>
       </c>
       <c r="H27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="I27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="J27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="K27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="L27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="M27" t="n">
-        <v>-1748.207039595352</v>
+        <v>1151.645843864685</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>26390.21823291719</v>
+        <v>30504.37449827309</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43525</v>
+        <v>43770</v>
       </c>
       <c r="C28" t="n">
-        <v>28015.05097492367</v>
+        <v>29376.56931873617</v>
       </c>
       <c r="D28" t="n">
-        <v>28310.72610006101</v>
+        <v>25711.01593999521</v>
       </c>
       <c r="E28" t="n">
-        <v>35774.45974428872</v>
+        <v>30250.34939188857</v>
       </c>
       <c r="F28" t="n">
-        <v>28015.05097492367</v>
+        <v>29376.56931873617</v>
       </c>
       <c r="G28" t="n">
-        <v>28015.05097492367</v>
+        <v>29376.56931873617</v>
       </c>
       <c r="H28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="I28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="J28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="K28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="L28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="M28" t="n">
-        <v>4159.301547181191</v>
+        <v>-1286.337668926929</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32174.35252210487</v>
+        <v>28090.23164980924</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43556</v>
+        <v>43800</v>
       </c>
       <c r="C29" t="n">
-        <v>27878.45799773906</v>
+        <v>29399.64092934245</v>
       </c>
       <c r="D29" t="n">
-        <v>22128.21112946455</v>
+        <v>23360.1522356263</v>
       </c>
       <c r="E29" t="n">
-        <v>29028.86800768854</v>
+        <v>28073.15820517053</v>
       </c>
       <c r="F29" t="n">
-        <v>27878.45799773906</v>
+        <v>29399.64092934245</v>
       </c>
       <c r="G29" t="n">
-        <v>27878.45799773906</v>
+        <v>29399.64092934245</v>
       </c>
       <c r="H29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="I29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="J29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="K29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="L29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="M29" t="n">
-        <v>-2323.261571739236</v>
+        <v>-3792.135654164812</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>25555.19642599982</v>
+        <v>25607.50527517763</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43586</v>
+        <v>43831</v>
       </c>
       <c r="C30" t="n">
-        <v>27746.27124562491</v>
+        <v>29423.4815936356</v>
       </c>
       <c r="D30" t="n">
-        <v>22952.35504432564</v>
+        <v>28626.08132255404</v>
       </c>
       <c r="E30" t="n">
-        <v>30288.00345707477</v>
+        <v>33270.93251102818</v>
       </c>
       <c r="F30" t="n">
-        <v>27746.27124562491</v>
+        <v>29423.4815936356</v>
       </c>
       <c r="G30" t="n">
-        <v>27746.27124562491</v>
+        <v>29423.4815936356</v>
       </c>
       <c r="H30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="I30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="J30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="K30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="L30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="M30" t="n">
-        <v>-1191.384084071307</v>
+        <v>1525.804158182503</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>26554.88716155361</v>
+        <v>30949.2857518181</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43617</v>
+        <v>43862</v>
       </c>
       <c r="C31" t="n">
-        <v>27609.6782750022</v>
+        <v>29447.32201033608</v>
       </c>
       <c r="D31" t="n">
-        <v>24730.34306731383</v>
+        <v>24943.23170938975</v>
       </c>
       <c r="E31" t="n">
-        <v>32021.70207872805</v>
+        <v>29568.93818166325</v>
       </c>
       <c r="F31" t="n">
-        <v>27609.6782750022</v>
+        <v>29447.32201033608</v>
       </c>
       <c r="G31" t="n">
-        <v>27609.6782750022</v>
+        <v>29447.32201033608</v>
       </c>
       <c r="H31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="I31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="J31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="K31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="L31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="M31" t="n">
-        <v>564.3714985680755</v>
+        <v>-2131.972270380686</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28174.04977357027</v>
+        <v>27315.34973995539</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43647</v>
+        <v>43891</v>
       </c>
       <c r="C32" t="n">
-        <v>27477.49152427883</v>
+        <v>29469.62433563653</v>
       </c>
       <c r="D32" t="n">
-        <v>21478.88240925592</v>
+        <v>29530.61986927128</v>
       </c>
       <c r="E32" t="n">
-        <v>28696.50411681054</v>
+        <v>34065.74372362292</v>
       </c>
       <c r="F32" t="n">
-        <v>27477.49152427883</v>
+        <v>29469.62433563653</v>
       </c>
       <c r="G32" t="n">
-        <v>27477.49152427883</v>
+        <v>29469.62433563653</v>
       </c>
       <c r="H32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="I32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="J32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="K32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="L32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="M32" t="n">
-        <v>-2380.936395593758</v>
+        <v>2170.336342425991</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>25096.55512868507</v>
+        <v>31639.96067806252</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43678</v>
+        <v>43922</v>
       </c>
       <c r="C33" t="n">
-        <v>27340.89854853134</v>
+        <v>29493.41233227188</v>
       </c>
       <c r="D33" t="n">
-        <v>20682.62811424251</v>
+        <v>28264.70651927966</v>
       </c>
       <c r="E33" t="n">
-        <v>27958.83970973704</v>
+        <v>32869.88385271046</v>
       </c>
       <c r="F33" t="n">
-        <v>27340.89854853134</v>
+        <v>29493.41233227188</v>
       </c>
       <c r="G33" t="n">
-        <v>27340.89854853134</v>
+        <v>29493.41233227188</v>
       </c>
       <c r="H33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="I33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="J33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="K33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="L33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="M33" t="n">
-        <v>-2803.968334287443</v>
+        <v>1018.63455448027</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>24536.9302142439</v>
+        <v>30512.04688675215</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43709</v>
+        <v>43952</v>
       </c>
       <c r="C34" t="n">
-        <v>27204.30557490907</v>
+        <v>29516.43297417705</v>
       </c>
       <c r="D34" t="n">
-        <v>27224.02585531519</v>
+        <v>23856.9467430232</v>
       </c>
       <c r="E34" t="n">
-        <v>34567.46937600346</v>
+        <v>28499.66516530886</v>
       </c>
       <c r="F34" t="n">
-        <v>27204.30557490907</v>
+        <v>29516.43297417705</v>
       </c>
       <c r="G34" t="n">
-        <v>27204.30557490907</v>
+        <v>29516.43297417705</v>
       </c>
       <c r="H34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="I34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="J34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="K34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="L34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="M34" t="n">
-        <v>3760.407156912996</v>
+        <v>-3375.904775532353</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>30964.71273182207</v>
+        <v>26140.5281986447</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43739</v>
+        <v>43983</v>
       </c>
       <c r="C35" t="n">
-        <v>27072.11882624236</v>
+        <v>29540.12229489792</v>
       </c>
       <c r="D35" t="n">
-        <v>29338.84990427478</v>
+        <v>26587.0373057158</v>
       </c>
       <c r="E35" t="n">
-        <v>36614.75389229177</v>
+        <v>31052.19622365145</v>
       </c>
       <c r="F35" t="n">
-        <v>27072.11882624236</v>
+        <v>29540.12229489792</v>
       </c>
       <c r="G35" t="n">
-        <v>27072.11882624236</v>
+        <v>29540.12229489792</v>
       </c>
       <c r="H35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="I35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="J35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="K35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="L35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="M35" t="n">
-        <v>5912.18796416168</v>
+        <v>-789.5066850682801</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>32984.30679040404</v>
+        <v>28750.61560982963</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43770</v>
+        <v>44013</v>
       </c>
       <c r="C36" t="n">
-        <v>26935.52585100482</v>
+        <v>29296.82353767727</v>
       </c>
       <c r="D36" t="n">
-        <v>26799.91761762976</v>
+        <v>26980.04406861786</v>
       </c>
       <c r="E36" t="n">
-        <v>33967.45801400796</v>
+        <v>31378.85680956386</v>
       </c>
       <c r="F36" t="n">
-        <v>26935.52585100482</v>
+        <v>29296.82353767727</v>
       </c>
       <c r="G36" t="n">
-        <v>26935.52585100482</v>
+        <v>29296.82353767727</v>
       </c>
       <c r="H36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="I36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="J36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="K36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="L36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="M36" t="n">
-        <v>3603.48231588641</v>
+        <v>-138.3092562637022</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>30539.00816689122</v>
+        <v>29158.51428141357</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43800</v>
+        <v>44044</v>
       </c>
       <c r="C37" t="n">
-        <v>26803.33910431241</v>
+        <v>29045.4148218826</v>
       </c>
       <c r="D37" t="n">
-        <v>26632.13235770365</v>
+        <v>28063.06263011257</v>
       </c>
       <c r="E37" t="n">
-        <v>33731.1779099261</v>
+        <v>32668.20699635973</v>
       </c>
       <c r="F37" t="n">
-        <v>26803.33910431241</v>
+        <v>29045.4148218826</v>
       </c>
       <c r="G37" t="n">
-        <v>26803.33910431241</v>
+        <v>29045.4148218826</v>
       </c>
       <c r="H37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="I37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="J37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="K37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="L37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="M37" t="n">
-        <v>3240.682924422978</v>
+        <v>1424.829583029711</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>30044.02202873539</v>
+        <v>30470.24440491231</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43831</v>
+        <v>44075</v>
       </c>
       <c r="C38" t="n">
-        <v>26666.74613273026</v>
+        <v>28793.60612056478</v>
       </c>
       <c r="D38" t="n">
-        <v>22849.71144203194</v>
+        <v>28970.82984762876</v>
       </c>
       <c r="E38" t="n">
-        <v>30151.49085586182</v>
+        <v>33285.09315780933</v>
       </c>
       <c r="F38" t="n">
-        <v>26666.74613273026</v>
+        <v>28793.60612056478</v>
       </c>
       <c r="G38" t="n">
-        <v>26666.74613273026</v>
+        <v>28793.60612056478</v>
       </c>
       <c r="H38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="I38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="J38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="K38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="L38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="M38" t="n">
-        <v>-130.2700704724967</v>
+        <v>2176.096127610039</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>26536.47606225777</v>
+        <v>30969.70224817482</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43862</v>
+        <v>44105</v>
       </c>
       <c r="C39" t="n">
-        <v>26530.15316841811</v>
+        <v>28549.9202805798</v>
       </c>
       <c r="D39" t="n">
-        <v>20148.94101719915</v>
+        <v>27377.16545045453</v>
       </c>
       <c r="E39" t="n">
-        <v>27499.52060504218</v>
+        <v>32047.78870479627</v>
       </c>
       <c r="F39" t="n">
-        <v>26530.15316841811</v>
+        <v>28549.9202805798</v>
       </c>
       <c r="G39" t="n">
-        <v>26530.15316841811</v>
+        <v>28549.9202805798</v>
       </c>
       <c r="H39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="I39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="J39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="K39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="L39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="M39" t="n">
-        <v>-2547.767968929614</v>
+        <v>1179.791777253184</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>23982.3851994885</v>
+        <v>29729.71205783298</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43891</v>
+        <v>44136</v>
       </c>
       <c r="C40" t="n">
-        <v>26402.37265341643</v>
+        <v>28297.79793729262</v>
       </c>
       <c r="D40" t="n">
-        <v>19729.98226609816</v>
+        <v>24730.48588009113</v>
       </c>
       <c r="E40" t="n">
-        <v>27058.7855268518</v>
+        <v>29693.44412245802</v>
       </c>
       <c r="F40" t="n">
-        <v>26402.37265341643</v>
+        <v>28297.79793729262</v>
       </c>
       <c r="G40" t="n">
-        <v>26402.37265341643</v>
+        <v>28297.79793729262</v>
       </c>
       <c r="H40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="I40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="J40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="K40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="L40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="M40" t="n">
-        <v>-3070.160834729782</v>
+        <v>-1014.550635837453</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23332.21181868665</v>
+        <v>27283.24730145516</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43922</v>
+        <v>44166</v>
       </c>
       <c r="C41" t="n">
-        <v>26265.77968910427</v>
+        <v>28053.80857282116</v>
       </c>
       <c r="D41" t="n">
-        <v>24169.54676708078</v>
+        <v>23706.52821917252</v>
       </c>
       <c r="E41" t="n">
-        <v>31303.90126415046</v>
+        <v>28182.14529399313</v>
       </c>
       <c r="F41" t="n">
-        <v>26265.77968910427</v>
+        <v>28053.80857282116</v>
       </c>
       <c r="G41" t="n">
-        <v>26265.77968910427</v>
+        <v>28053.80857282116</v>
       </c>
       <c r="H41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="I41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="J41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="K41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="L41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="M41" t="n">
-        <v>1428.298522608056</v>
+        <v>-2149.173528468254</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>27694.07821171233</v>
+        <v>25904.6350443529</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43952</v>
+        <v>44197</v>
       </c>
       <c r="C42" t="n">
-        <v>26133.59294944736</v>
+        <v>27801.409449978</v>
       </c>
       <c r="D42" t="n">
-        <v>23769.74728014431</v>
+        <v>24340.54118712792</v>
       </c>
       <c r="E42" t="n">
-        <v>30723.19245547686</v>
+        <v>28747.77418904174</v>
       </c>
       <c r="F42" t="n">
-        <v>26133.59294944736</v>
+        <v>27801.409449978</v>
       </c>
       <c r="G42" t="n">
-        <v>26133.59294944736</v>
+        <v>27801.409449978</v>
       </c>
       <c r="H42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="J42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="K42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="L42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="M42" t="n">
-        <v>1169.311593604346</v>
+        <v>-1097.249344511317</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27302.9045430517</v>
+        <v>26704.16010546668</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43983</v>
+        <v>44228</v>
       </c>
       <c r="C43" t="n">
-        <v>25996.99998513521</v>
+        <v>27548.84719295649</v>
       </c>
       <c r="D43" t="n">
-        <v>16025.94066656167</v>
+        <v>20111.99789920263</v>
       </c>
       <c r="E43" t="n">
-        <v>22897.4028112982</v>
+        <v>24827.17368506824</v>
       </c>
       <c r="F43" t="n">
-        <v>25996.99998513521</v>
+        <v>27548.84719295649</v>
       </c>
       <c r="G43" t="n">
-        <v>25996.99998513521</v>
+        <v>27548.84719295649</v>
       </c>
       <c r="H43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="I43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="J43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="K43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="L43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="M43" t="n">
-        <v>-6435.185584620674</v>
+        <v>-5033.525132828736</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19561.81440051454</v>
+        <v>22515.32206012776</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44013</v>
+        <v>44256</v>
       </c>
       <c r="C44" t="n">
-        <v>25864.81324547829</v>
+        <v>27320.72644467901</v>
       </c>
       <c r="D44" t="n">
-        <v>22401.43067362847</v>
+        <v>26186.79117076549</v>
       </c>
       <c r="E44" t="n">
-        <v>29319.13370574107</v>
+        <v>30947.32645951713</v>
       </c>
       <c r="F44" t="n">
-        <v>25864.81324547829</v>
+        <v>27320.72644467901</v>
       </c>
       <c r="G44" t="n">
-        <v>25864.81324547829</v>
+        <v>27320.72644467901</v>
       </c>
       <c r="H44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="I44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="J44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="K44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="L44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="M44" t="n">
-        <v>-39.35987038510149</v>
+        <v>1252.406065765218</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>25825.45337509319</v>
+        <v>28573.13251044423</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44044</v>
+        <v>44287</v>
       </c>
       <c r="C45" t="n">
-        <v>25728.22028116615</v>
+        <v>27068.04108243448</v>
       </c>
       <c r="D45" t="n">
-        <v>24639.77529186899</v>
+        <v>24709.04843443422</v>
       </c>
       <c r="E45" t="n">
-        <v>31713.50879033296</v>
+        <v>29331.75783411076</v>
       </c>
       <c r="F45" t="n">
-        <v>25728.22028116615</v>
+        <v>27068.04108243448</v>
       </c>
       <c r="G45" t="n">
-        <v>25728.22028116615</v>
+        <v>27068.04108243448</v>
       </c>
       <c r="H45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="I45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="J45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="K45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="L45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="M45" t="n">
-        <v>2533.567280065242</v>
+        <v>8.791340900728908</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>28261.78756123139</v>
+        <v>27076.83242333521</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44075</v>
+        <v>44317</v>
       </c>
       <c r="C46" t="n">
-        <v>25591.627316854</v>
+        <v>26823.5068609075</v>
       </c>
       <c r="D46" t="n">
-        <v>25528.26723024895</v>
+        <v>21872.18385114272</v>
       </c>
       <c r="E46" t="n">
-        <v>32787.73969249913</v>
+        <v>26499.26152200225</v>
       </c>
       <c r="F46" t="n">
-        <v>25591.627316854</v>
+        <v>26823.5068609075</v>
       </c>
       <c r="G46" t="n">
-        <v>25591.627316854</v>
+        <v>26823.5068609075</v>
       </c>
       <c r="H46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="I46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="J46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="K46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="L46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="M46" t="n">
-        <v>3757.349336734454</v>
+        <v>-2521.652857893319</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29348.97665358845</v>
+        <v>24301.85400301418</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44105</v>
+        <v>44348</v>
       </c>
       <c r="C47" t="n">
-        <v>25459.44057719708</v>
+        <v>26570.79608754247</v>
       </c>
       <c r="D47" t="n">
-        <v>25051.21073527358</v>
+        <v>23171.7667086081</v>
       </c>
       <c r="E47" t="n">
-        <v>31875.61958848271</v>
+        <v>27618.60949356766</v>
       </c>
       <c r="F47" t="n">
-        <v>25459.44057719708</v>
+        <v>26570.79608754247</v>
       </c>
       <c r="G47" t="n">
-        <v>25459.44057719708</v>
+        <v>26570.79608754247</v>
       </c>
       <c r="H47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="I47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="J47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="K47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="L47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="M47" t="n">
-        <v>2901.727872067861</v>
+        <v>-1183.871182324368</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>28361.16844926494</v>
+        <v>25386.9249052181</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44136</v>
+        <v>44378</v>
       </c>
       <c r="C48" t="n">
-        <v>25322.84761288493</v>
+        <v>26326.23727460856</v>
       </c>
       <c r="D48" t="n">
-        <v>22502.77996490922</v>
+        <v>24636.74375569125</v>
       </c>
       <c r="E48" t="n">
-        <v>29673.39009417178</v>
+        <v>29138.73103328209</v>
       </c>
       <c r="F48" t="n">
-        <v>25322.84761288493</v>
+        <v>26326.23727460856</v>
       </c>
       <c r="G48" t="n">
-        <v>25322.84761288493</v>
+        <v>26326.23727460856</v>
       </c>
       <c r="H48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="I48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="J48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="K48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="L48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="M48" t="n">
-        <v>1002.082166841252</v>
+        <v>531.4196145380125</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>26324.92977972618</v>
+        <v>26857.65688914658</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44166</v>
+        <v>44409</v>
       </c>
       <c r="C49" t="n">
-        <v>25190.66087322801</v>
+        <v>26073.52650124353</v>
       </c>
       <c r="D49" t="n">
-        <v>24235.76994289045</v>
+        <v>25741.45033174381</v>
       </c>
       <c r="E49" t="n">
-        <v>31186.36461960545</v>
+        <v>30415.98374103132</v>
       </c>
       <c r="F49" t="n">
-        <v>25190.66087322801</v>
+        <v>26073.52650124353</v>
       </c>
       <c r="G49" t="n">
-        <v>25190.66087322801</v>
+        <v>26073.52650124353</v>
       </c>
       <c r="H49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="I49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="J49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="K49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="L49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="M49" t="n">
-        <v>2470.433844388272</v>
+        <v>1925.873721823383</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>27661.09471761628</v>
+        <v>27999.40022306691</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44197</v>
+        <v>44440</v>
       </c>
       <c r="C50" t="n">
-        <v>25054.06790094141</v>
+        <v>25820.8157278785</v>
       </c>
       <c r="D50" t="n">
-        <v>26564.85250511477</v>
+        <v>24721.48078848535</v>
       </c>
       <c r="E50" t="n">
-        <v>33421.59898170661</v>
+        <v>29383.63927910664</v>
       </c>
       <c r="F50" t="n">
-        <v>25054.06790094141</v>
+        <v>25820.8157278785</v>
       </c>
       <c r="G50" t="n">
-        <v>25054.06790094141</v>
+        <v>25820.8157278785</v>
       </c>
       <c r="H50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="I50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="J50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="K50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="L50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="M50" t="n">
-        <v>5138.623590455677</v>
+        <v>1369.937183505883</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>30192.69149139709</v>
+        <v>27190.75291138438</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44228</v>
+        <v>44470</v>
       </c>
       <c r="C51" t="n">
-        <v>24917.47492865481</v>
+        <v>25576.2569149446</v>
       </c>
       <c r="D51" t="n">
-        <v>21266.04469415071</v>
+        <v>24308.44150797988</v>
       </c>
       <c r="E51" t="n">
-        <v>28459.44790810549</v>
+        <v>29047.92936213215</v>
       </c>
       <c r="F51" t="n">
-        <v>24917.47492865481</v>
+        <v>25576.2569149446</v>
       </c>
       <c r="G51" t="n">
-        <v>24917.47492865481</v>
+        <v>25576.2569149446</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.680033451268798</v>
+        <v>1164.514141482893</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>24914.79489520354</v>
+        <v>26740.77105642749</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44256</v>
+        <v>44501</v>
       </c>
       <c r="C52" t="n">
-        <v>24794.10062719651</v>
+        <v>25323.54614157956</v>
       </c>
       <c r="D52" t="n">
-        <v>20458.16241183928</v>
+        <v>21953.39554008067</v>
       </c>
       <c r="E52" t="n">
-        <v>27951.32663824295</v>
+        <v>26555.40225263525</v>
       </c>
       <c r="F52" t="n">
-        <v>24794.10062719651</v>
+        <v>25323.54614157956</v>
       </c>
       <c r="G52" t="n">
-        <v>24794.10062719651</v>
+        <v>25323.54614157956</v>
       </c>
       <c r="H52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="I52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="J52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="K52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="L52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="M52" t="n">
-        <v>-654.2708290567664</v>
+        <v>-1106.513021292247</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>24139.82979813974</v>
+        <v>24217.03312028731</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44287</v>
+        <v>44531</v>
       </c>
       <c r="C53" t="n">
-        <v>24657.50765045684</v>
+        <v>25078.98732864566</v>
       </c>
       <c r="D53" t="n">
-        <v>21361.63214798779</v>
+        <v>19974.21528710426</v>
       </c>
       <c r="E53" t="n">
-        <v>28344.49251479151</v>
+        <v>24564.87474262829</v>
       </c>
       <c r="F53" t="n">
-        <v>24657.50765045684</v>
+        <v>25078.98732864566</v>
       </c>
       <c r="G53" t="n">
-        <v>24657.50765045684</v>
+        <v>25078.98732864566</v>
       </c>
       <c r="H53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="I53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="J53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="K53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="L53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="M53" t="n">
-        <v>210.5734066338516</v>
+        <v>-2717.259583741159</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>24868.08105709069</v>
+        <v>22361.7277449045</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44317</v>
+        <v>44562</v>
       </c>
       <c r="C54" t="n">
-        <v>24525.32089877328</v>
+        <v>24826.27655528063</v>
       </c>
       <c r="D54" t="n">
-        <v>21427.86187901484</v>
+        <v>22205.74660327993</v>
       </c>
       <c r="E54" t="n">
-        <v>28520.05724442756</v>
+        <v>27000.20286789957</v>
       </c>
       <c r="F54" t="n">
-        <v>24525.32089877328</v>
+        <v>24826.27655528063</v>
       </c>
       <c r="G54" t="n">
-        <v>24525.32089877328</v>
+        <v>24826.27655528063</v>
       </c>
       <c r="H54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="I54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="J54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="K54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="L54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="M54" t="n">
-        <v>348.0301478053811</v>
+        <v>-240.3842872813014</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>24873.35104657866</v>
+        <v>24585.89226799933</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44348</v>
+        <v>44593</v>
       </c>
       <c r="C55" t="n">
-        <v>24388.72791045913</v>
+        <v>24573.56578191559</v>
       </c>
       <c r="D55" t="n">
-        <v>16860.34570144568</v>
+        <v>18100.59785821399</v>
       </c>
       <c r="E55" t="n">
-        <v>23883.95044894813</v>
+        <v>22707.55683694403</v>
       </c>
       <c r="F55" t="n">
-        <v>24388.72791045913</v>
+        <v>24573.56578191559</v>
       </c>
       <c r="G55" t="n">
-        <v>24388.72791045913</v>
+        <v>24573.56578191559</v>
       </c>
       <c r="H55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="I55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="J55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="K55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="L55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="M55" t="n">
-        <v>-4099.656601854691</v>
+        <v>-4045.486336519635</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>20289.07130860443</v>
+        <v>20528.07944539595</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44378</v>
+        <v>44621</v>
       </c>
       <c r="C56" t="n">
-        <v>24256.54114757445</v>
+        <v>24345.31088984395</v>
       </c>
       <c r="D56" t="n">
-        <v>19480.98553796081</v>
+        <v>22459.92694844945</v>
       </c>
       <c r="E56" t="n">
-        <v>27242.91516609476</v>
+        <v>26935.9030950227</v>
       </c>
       <c r="F56" t="n">
-        <v>24256.54114757445</v>
+        <v>24345.31088984395</v>
       </c>
       <c r="G56" t="n">
-        <v>24256.54114757445</v>
+        <v>24345.31088984395</v>
       </c>
       <c r="H56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="I56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="J56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="K56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="L56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="M56" t="n">
-        <v>-768.7050113270683</v>
+        <v>308.7750717421349</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>23487.83613624738</v>
+        <v>24654.08596158608</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44409</v>
+        <v>44652</v>
       </c>
       <c r="C57" t="n">
-        <v>24119.94815926029</v>
+        <v>24092.60011647892</v>
       </c>
       <c r="D57" t="n">
-        <v>21138.75781882033</v>
+        <v>20826.92819477376</v>
       </c>
       <c r="E57" t="n">
-        <v>28630.17562377225</v>
+        <v>25509.02910672297</v>
       </c>
       <c r="F57" t="n">
-        <v>24119.94815926029</v>
+        <v>24092.60011647892</v>
       </c>
       <c r="G57" t="n">
-        <v>24119.94815926029</v>
+        <v>24092.60011647892</v>
       </c>
       <c r="H57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="I57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="J57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="K57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="L57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="M57" t="n">
-        <v>745.6335709709924</v>
+        <v>-982.3757799693969</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>24865.58173023129</v>
+        <v>23110.22433650952</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44440</v>
+        <v>44682</v>
       </c>
       <c r="C58" t="n">
-        <v>23983.35517094614</v>
+        <v>23848.04130354501</v>
       </c>
       <c r="D58" t="n">
-        <v>24023.1333382178</v>
+        <v>19872.76668599478</v>
       </c>
       <c r="E58" t="n">
-        <v>31275.98942247462</v>
+        <v>24673.48018375467</v>
       </c>
       <c r="F58" t="n">
-        <v>23983.35517094614</v>
+        <v>23848.04130354501</v>
       </c>
       <c r="G58" t="n">
-        <v>23983.35517094614</v>
+        <v>23848.04130354501</v>
       </c>
       <c r="H58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="I58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="J58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="K58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="L58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="M58" t="n">
-        <v>3714.535983729563</v>
+        <v>-1650.786108832575</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>27697.8911546757</v>
+        <v>22197.25519471244</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44470</v>
+        <v>44713</v>
       </c>
       <c r="C59" t="n">
-        <v>23851.16840806147</v>
+        <v>23595.33053017998</v>
       </c>
       <c r="D59" t="n">
-        <v>24201.63942883769</v>
+        <v>19725.18294596041</v>
       </c>
       <c r="E59" t="n">
-        <v>31553.38125837115</v>
+        <v>24398.04590935279</v>
       </c>
       <c r="F59" t="n">
-        <v>23851.16840806147</v>
+        <v>23591.31044234616</v>
       </c>
       <c r="G59" t="n">
-        <v>23851.16840806147</v>
+        <v>23598.12081400641</v>
       </c>
       <c r="H59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="I59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="J59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="K59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="L59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="M59" t="n">
-        <v>3887.161871579778</v>
+        <v>-1572.960231626538</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>27738.33027964124</v>
+        <v>22022.37029855344</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44501</v>
+        <v>44743</v>
       </c>
       <c r="C60" t="n">
-        <v>23714.5754197473</v>
+        <v>23350.77171724608</v>
       </c>
       <c r="D60" t="n">
-        <v>22082.89496787879</v>
+        <v>22291.87230182561</v>
       </c>
       <c r="E60" t="n">
-        <v>29209.96472103116</v>
+        <v>26889.29379469799</v>
       </c>
       <c r="F60" t="n">
-        <v>23714.5754197473</v>
+        <v>23333.4895041186</v>
       </c>
       <c r="G60" t="n">
-        <v>23714.5754197473</v>
+        <v>23365.18364108748</v>
       </c>
       <c r="H60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="I60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="J60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="K60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="L60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="M60" t="n">
-        <v>1884.402593740547</v>
+        <v>1206.05087669577</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>25598.97801348785</v>
+        <v>24556.82259394185</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44531</v>
+        <v>44774</v>
       </c>
       <c r="C61" t="n">
-        <v>23582.38865686263</v>
+        <v>23098.06094388105</v>
       </c>
       <c r="D61" t="n">
-        <v>23121.97211003013</v>
+        <v>23196.91354860297</v>
       </c>
       <c r="E61" t="n">
-        <v>29887.09829941172</v>
+        <v>27772.37828912851</v>
       </c>
       <c r="F61" t="n">
-        <v>23582.38865686263</v>
+        <v>23059.69722814999</v>
       </c>
       <c r="G61" t="n">
-        <v>23582.38865686263</v>
+        <v>23128.44038750793</v>
       </c>
       <c r="H61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="I61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="J61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="K61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="L61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="M61" t="n">
-        <v>2771.039176543944</v>
+        <v>2403.957305930621</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>26353.42783340658</v>
+        <v>25502.01824981167</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44562</v>
+        <v>44805</v>
       </c>
       <c r="C62" t="n">
-        <v>23445.79566854848</v>
+        <v>22845.35017051601</v>
       </c>
       <c r="D62" t="n">
-        <v>23285.53746233182</v>
+        <v>21105.42508185388</v>
       </c>
       <c r="E62" t="n">
-        <v>30244.49951120057</v>
+        <v>25654.30863999153</v>
       </c>
       <c r="F62" t="n">
-        <v>23445.79566854848</v>
+        <v>22783.25917978512</v>
       </c>
       <c r="G62" t="n">
-        <v>23445.79566854848</v>
+        <v>22893.59155906221</v>
       </c>
       <c r="H62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="I62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="J62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="K62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="L62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="M62" t="n">
-        <v>3396.794425751059</v>
+        <v>550.5825000846728</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>26842.59009429954</v>
+        <v>23395.93267060069</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44593</v>
+        <v>44835</v>
       </c>
       <c r="C63" t="n">
-        <v>23309.20268023431</v>
+        <v>22600.79135758211</v>
       </c>
       <c r="D63" t="n">
-        <v>18926.81264467597</v>
+        <v>21555.59239446652</v>
       </c>
       <c r="E63" t="n">
-        <v>25926.3222863705</v>
+        <v>26095.91731376585</v>
       </c>
       <c r="F63" t="n">
-        <v>23309.20268023431</v>
+        <v>22516.57891954192</v>
       </c>
       <c r="G63" t="n">
-        <v>23309.20268023431</v>
+        <v>22669.14537492807</v>
       </c>
       <c r="H63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="I63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="J63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="K63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="L63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="M63" t="n">
-        <v>-899.4919008444581</v>
+        <v>1155.02037102024</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>22409.71077938985</v>
+        <v>23755.81172860235</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44621</v>
+        <v>44866</v>
       </c>
       <c r="C64" t="n">
-        <v>23185.82836820862</v>
+        <v>22348.08058421708</v>
       </c>
       <c r="D64" t="n">
-        <v>21760.66036697236</v>
+        <v>18757.2530887487</v>
       </c>
       <c r="E64" t="n">
-        <v>28522.78450830842</v>
+        <v>23443.15792452846</v>
       </c>
       <c r="F64" t="n">
-        <v>23185.82836820862</v>
+        <v>22237.33283549362</v>
       </c>
       <c r="G64" t="n">
-        <v>23185.82836820862</v>
+        <v>22439.97476089415</v>
       </c>
       <c r="H64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="I64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="J64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="K64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="L64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="M64" t="n">
-        <v>1756.344042797602</v>
+        <v>-1197.219511234802</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>24942.17241100622</v>
+        <v>21150.86107298228</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44652</v>
+        <v>44896</v>
       </c>
       <c r="C65" t="n">
-        <v>23049.23537989446</v>
+        <v>22103.52177128317</v>
       </c>
       <c r="D65" t="n">
-        <v>18475.04200936544</v>
+        <v>16357.7837603143</v>
       </c>
       <c r="E65" t="n">
-        <v>25604.49415374762</v>
+        <v>21059.79026081847</v>
       </c>
       <c r="F65" t="n">
-        <v>23049.23537989446</v>
+        <v>21962.77801499808</v>
       </c>
       <c r="G65" t="n">
-        <v>23049.23537989446</v>
+        <v>22224.3923604202</v>
       </c>
       <c r="H65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="I65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="J65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="K65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="L65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="M65" t="n">
-        <v>-1040.253473130217</v>
+        <v>-3265.031945306504</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>22008.98190676424</v>
+        <v>18838.48982597667</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44682</v>
+        <v>44927</v>
       </c>
       <c r="C66" t="n">
-        <v>22917.04861700979</v>
+        <v>21850.81099791814</v>
       </c>
       <c r="D66" t="n">
-        <v>18980.82311719331</v>
+        <v>20251.25839798887</v>
       </c>
       <c r="E66" t="n">
-        <v>26104.84550105254</v>
+        <v>24911.80253197076</v>
       </c>
       <c r="F66" t="n">
-        <v>22917.04861387137</v>
+        <v>21680.15660560754</v>
       </c>
       <c r="G66" t="n">
-        <v>22917.04861826362</v>
+        <v>22004.31705698659</v>
       </c>
       <c r="H66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="I66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="J66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="K66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="L66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="M66" t="n">
-        <v>-439.0503640429048</v>
+        <v>634.3604497653495</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>22477.99825296689</v>
+        <v>22485.17144768349</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44713</v>
+        <v>44958</v>
       </c>
       <c r="C67" t="n">
-        <v>22780.45562869563</v>
+        <v>21598.10022455311</v>
       </c>
       <c r="D67" t="n">
-        <v>17507.05359888212</v>
+        <v>16140.29977104247</v>
       </c>
       <c r="E67" t="n">
-        <v>24485.90307671555</v>
+        <v>20844.26578471366</v>
       </c>
       <c r="F67" t="n">
-        <v>22780.45561369617</v>
+        <v>21391.36342278493</v>
       </c>
       <c r="G67" t="n">
-        <v>22780.45564019937</v>
+        <v>21780.32419945519</v>
       </c>
       <c r="H67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="I67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="J67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="K67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="L67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="M67" t="n">
-        <v>-1765.711438796827</v>
+        <v>-3077.880177997013</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>21014.7441898988</v>
+        <v>18520.2200465561</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44743</v>
+        <v>44986</v>
       </c>
       <c r="C68" t="n">
-        <v>22648.26886581096</v>
+        <v>21369.84533248147</v>
       </c>
       <c r="D68" t="n">
-        <v>17565.76952131977</v>
+        <v>18284.32472310566</v>
       </c>
       <c r="E68" t="n">
-        <v>24784.58765569699</v>
+        <v>23108.94920748541</v>
       </c>
       <c r="F68" t="n">
-        <v>22648.26883389958</v>
+        <v>21133.73022510774</v>
       </c>
       <c r="G68" t="n">
-        <v>22648.2688919849</v>
+        <v>21579.20315457186</v>
       </c>
       <c r="H68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="I68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="J68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="K68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="L68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="M68" t="n">
-        <v>-1549.51752420223</v>
+        <v>-659.3254028101505</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>21098.75134160873</v>
+        <v>20710.51992967131</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44774</v>
+        <v>45017</v>
       </c>
       <c r="C69" t="n">
-        <v>22511.6758774968</v>
+        <v>21117.13455911643</v>
       </c>
       <c r="D69" t="n">
-        <v>17990.76057627707</v>
+        <v>16777.38108864197</v>
       </c>
       <c r="E69" t="n">
-        <v>25127.48564905809</v>
+        <v>21492.83341355834</v>
       </c>
       <c r="F69" t="n">
-        <v>22511.6758248878</v>
+        <v>20841.12779828762</v>
       </c>
       <c r="G69" t="n">
-        <v>22511.67592126621</v>
+        <v>21360.50246834102</v>
       </c>
       <c r="H69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="I69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="J69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="K69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="L69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="M69" t="n">
-        <v>-1034.296734933908</v>
+        <v>-1953.57979110787</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>21477.37914256289</v>
+        <v>19163.55476800856</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44805</v>
+        <v>45047</v>
       </c>
       <c r="C70" t="n">
-        <v>22375.08288918264</v>
+        <v>20872.57574618253</v>
       </c>
       <c r="D70" t="n">
-        <v>22474.34168642803</v>
+        <v>17819.43916707129</v>
       </c>
       <c r="E70" t="n">
-        <v>29941.9456072631</v>
+        <v>22364.90127117943</v>
       </c>
       <c r="F70" t="n">
-        <v>22375.08281104768</v>
+        <v>20569.99674058302</v>
       </c>
       <c r="G70" t="n">
-        <v>22375.08295587653</v>
+        <v>21149.83733548594</v>
       </c>
       <c r="H70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="I70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="J70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="K70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="L70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="M70" t="n">
-        <v>3715.471455048777</v>
+        <v>-763.943180610527</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>26090.55434423142</v>
+        <v>20108.632565572</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44835</v>
+        <v>45078</v>
       </c>
       <c r="C71" t="n">
-        <v>22242.89612629797</v>
+        <v>20619.8649728175</v>
       </c>
       <c r="D71" t="n">
-        <v>23547.549911075</v>
+        <v>16218.96045848471</v>
       </c>
       <c r="E71" t="n">
-        <v>30687.5932145277</v>
+        <v>20975.27903387259</v>
       </c>
       <c r="F71" t="n">
-        <v>22242.89601989042</v>
+        <v>20266.88341292373</v>
       </c>
       <c r="G71" t="n">
-        <v>22242.89621427313</v>
+        <v>20929.52417736414</v>
       </c>
       <c r="H71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="I71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="J71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="K71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="L71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="M71" t="n">
-        <v>4891.14705757122</v>
+        <v>-1956.783980530755</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>27134.04318386919</v>
+        <v>18663.08099228674</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44866</v>
+        <v>45108</v>
       </c>
       <c r="C72" t="n">
-        <v>22106.30313798381</v>
+        <v>20375.30615988359</v>
       </c>
       <c r="D72" t="n">
-        <v>21286.37637785007</v>
+        <v>19815.79528415399</v>
       </c>
       <c r="E72" t="n">
-        <v>28398.94688455806</v>
+        <v>24589.83248414359</v>
       </c>
       <c r="F72" t="n">
-        <v>22106.30299727738</v>
+        <v>19974.4259731891</v>
       </c>
       <c r="G72" t="n">
-        <v>22106.30325091353</v>
+        <v>20725.85820407965</v>
       </c>
       <c r="H72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="I72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="J72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="K72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="L72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="M72" t="n">
-        <v>2752.015134289717</v>
+        <v>1884.682525144693</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>24858.31827227353</v>
+        <v>22259.98868502829</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44896</v>
+        <v>45139</v>
       </c>
       <c r="C73" t="n">
-        <v>21974.11637509914</v>
+        <v>20122.59538651856</v>
       </c>
       <c r="D73" t="n">
-        <v>21186.19033433362</v>
+        <v>20686.16281793012</v>
       </c>
       <c r="E73" t="n">
-        <v>28468.79811003865</v>
+        <v>25337.55530286067</v>
       </c>
       <c r="F73" t="n">
-        <v>21974.11620631512</v>
+        <v>19679.4720051658</v>
       </c>
       <c r="G73" t="n">
-        <v>21974.11651476284</v>
+        <v>20505.66319442987</v>
       </c>
       <c r="H73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="I73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="J73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="K73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="L73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="M73" t="n">
-        <v>3027.787596443743</v>
+        <v>2858.549851043451</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>25001.90397154288</v>
+        <v>22981.14523756201</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44927</v>
+        <v>45170</v>
       </c>
       <c r="C74" t="n">
-        <v>21837.52338678498</v>
+        <v>19869.88461315353</v>
       </c>
       <c r="D74" t="n">
-        <v>19947.61887198354</v>
+        <v>16999.21020924083</v>
       </c>
       <c r="E74" t="n">
-        <v>27145.5834314506</v>
+        <v>21833.63057623403</v>
       </c>
       <c r="F74" t="n">
-        <v>21837.52318311798</v>
+        <v>19383.30264290225</v>
       </c>
       <c r="G74" t="n">
-        <v>21837.5235559028</v>
+        <v>20288.6949087366</v>
       </c>
       <c r="H74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="I74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="J74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="K74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="L74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="M74" t="n">
-        <v>1639.748683594727</v>
+        <v>-281.125117337216</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>23477.27207037971</v>
+        <v>19588.75949581631</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44958</v>
+        <v>45200</v>
       </c>
       <c r="C75" t="n">
-        <v>21700.93039847082</v>
+        <v>19625.32580021962</v>
       </c>
       <c r="D75" t="n">
-        <v>16506.06239505171</v>
+        <v>18421.14615648496</v>
       </c>
       <c r="E75" t="n">
-        <v>23329.01877503649</v>
+        <v>23135.08820199821</v>
       </c>
       <c r="F75" t="n">
-        <v>21700.9301605196</v>
+        <v>19085.91900616655</v>
       </c>
       <c r="G75" t="n">
-        <v>21700.93060138594</v>
+        <v>20075.9614964226</v>
       </c>
       <c r="H75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="I75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="J75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="K75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="L75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="M75" t="n">
-        <v>-1748.207039583212</v>
+        <v>1151.64584387318</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,378 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>19952.72335888761</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21577.55608644513</v>
-      </c>
-      <c r="D76" t="n">
-        <v>22202.15584186268</v>
-      </c>
-      <c r="E76" t="n">
-        <v>29083.06273686133</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21577.55581113074</v>
-      </c>
-      <c r="G76" t="n">
-        <v>21577.55631904279</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4159.301547186139</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>25736.85763363127</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C77" t="n">
-        <v>21440.96309813097</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15470.5363456548</v>
-      </c>
-      <c r="E77" t="n">
-        <v>22557.1210485038</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21440.96278240829</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21440.96336486013</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="L77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-2323.261571741055</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>19117.70152638991</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C78" t="n">
-        <v>21308.7763352463</v>
-      </c>
-      <c r="D78" t="n">
-        <v>16528.77686595895</v>
-      </c>
-      <c r="E78" t="n">
-        <v>23710.23865767073</v>
-      </c>
-      <c r="F78" t="n">
-        <v>21308.77598009062</v>
-      </c>
-      <c r="G78" t="n">
-        <v>21308.77663738684</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="L78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="M78" t="n">
-        <v>-1191.384084067226</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>20117.39225117907</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C79" t="n">
-        <v>21172.18334693214</v>
-      </c>
-      <c r="D79" t="n">
-        <v>18386.68130560281</v>
-      </c>
-      <c r="E79" t="n">
-        <v>25215.9321580395</v>
-      </c>
-      <c r="F79" t="n">
-        <v>21172.18295437102</v>
-      </c>
-      <c r="G79" t="n">
-        <v>21172.18368404189</v>
-      </c>
-      <c r="H79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="I79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="J79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="K79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="L79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="M79" t="n">
-        <v>564.3714985656493</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>21736.55484549778</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C80" t="n">
-        <v>21039.99658404747</v>
-      </c>
-      <c r="D80" t="n">
-        <v>15193.06894023799</v>
-      </c>
-      <c r="E80" t="n">
-        <v>22085.43851860472</v>
-      </c>
-      <c r="F80" t="n">
-        <v>21039.99614560243</v>
-      </c>
-      <c r="G80" t="n">
-        <v>21039.99695613173</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="J80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="L80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-2380.936395592039</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>18659.06018845543</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C81" t="n">
-        <v>20903.40359573331</v>
-      </c>
-      <c r="D81" t="n">
-        <v>14642.88504727538</v>
-      </c>
-      <c r="E81" t="n">
-        <v>21633.77695952842</v>
-      </c>
-      <c r="F81" t="n">
-        <v>20903.40311389619</v>
-      </c>
-      <c r="G81" t="n">
-        <v>20903.40400563076</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="I81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="L81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-2803.968334285914</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>18099.43526144739</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C82" t="n">
-        <v>20766.81060741915</v>
-      </c>
-      <c r="D82" t="n">
-        <v>20718.66418848261</v>
-      </c>
-      <c r="E82" t="n">
-        <v>27844.41635118192</v>
-      </c>
-      <c r="F82" t="n">
-        <v>20766.81006940261</v>
-      </c>
-      <c r="G82" t="n">
-        <v>20766.81106977259</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="M82" t="n">
-        <v>3760.407156897782</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>24527.21776431693</v>
+        <v>20776.9716440928</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/cb_sales_monthly.xlsx
+++ b/outputs/cb_sales_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42979</v>
       </c>
       <c r="C2" t="n">
-        <v>28768.24784755049</v>
+        <v>28838.86821076704</v>
       </c>
       <c r="D2" t="n">
-        <v>27976.18287506613</v>
+        <v>27887.27617406437</v>
       </c>
       <c r="E2" t="n">
-        <v>32285.50074661004</v>
+        <v>32406.77399690037</v>
       </c>
       <c r="F2" t="n">
-        <v>28768.24784755049</v>
+        <v>28838.86821076704</v>
       </c>
       <c r="G2" t="n">
-        <v>28768.24784755049</v>
+        <v>28838.86821076704</v>
       </c>
       <c r="H2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="I2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="J2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="K2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="L2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="M2" t="n">
-        <v>1369.937183513699</v>
+        <v>1317.873547591226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>30138.18503106419</v>
+        <v>30156.74175835827</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>43009</v>
       </c>
       <c r="C3" t="n">
-        <v>28791.31945879629</v>
+        <v>28857.22703165957</v>
       </c>
       <c r="D3" t="n">
-        <v>27593.82951359873</v>
+        <v>27769.53729281219</v>
       </c>
       <c r="E3" t="n">
-        <v>32377.02684760368</v>
+        <v>32125.039924976</v>
       </c>
       <c r="F3" t="n">
-        <v>28791.31945879629</v>
+        <v>28857.22703165957</v>
       </c>
       <c r="G3" t="n">
-        <v>28791.31945879629</v>
+        <v>28857.22703165957</v>
       </c>
       <c r="H3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="I3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="J3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="K3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="L3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.514141485366</v>
+        <v>1120.263222159859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29955.83360028165</v>
+        <v>29977.49025381943</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>28815.16012375028</v>
+        <v>28876.19781324851</v>
       </c>
       <c r="D4" t="n">
-        <v>25458.11924809462</v>
+        <v>25528.4091812064</v>
       </c>
       <c r="E4" t="n">
-        <v>30165.2980917834</v>
+        <v>29986.33101412559</v>
       </c>
       <c r="F4" t="n">
-        <v>28815.16012375028</v>
+        <v>28876.19781324851</v>
       </c>
       <c r="G4" t="n">
-        <v>28815.16012375028</v>
+        <v>28876.19781324851</v>
       </c>
       <c r="H4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="I4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="J4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="K4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="L4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="M4" t="n">
-        <v>-1106.51302129301</v>
+        <v>-1146.517406611332</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27708.64710245727</v>
+        <v>27729.68040663717</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>43070</v>
       </c>
       <c r="C5" t="n">
-        <v>28838.23173489661</v>
+        <v>28894.55663392515</v>
       </c>
       <c r="D5" t="n">
-        <v>23960.23221725048</v>
+        <v>23843.28742226617</v>
       </c>
       <c r="E5" t="n">
-        <v>28391.51050431228</v>
+        <v>28423.57558597013</v>
       </c>
       <c r="F5" t="n">
-        <v>28838.23173489661</v>
+        <v>28894.55663392515</v>
       </c>
       <c r="G5" t="n">
-        <v>28838.23173489661</v>
+        <v>28894.55663392515</v>
       </c>
       <c r="H5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="I5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="J5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="K5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="L5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="M5" t="n">
-        <v>-2717.259583747817</v>
+        <v>-2756.92372973492</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>26120.97215114879</v>
+        <v>26137.63290419023</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>43101</v>
       </c>
       <c r="C6" t="n">
-        <v>28862.07239974782</v>
+        <v>28913.52741529102</v>
       </c>
       <c r="D6" t="n">
-        <v>26542.07501285526</v>
+        <v>26417.84534171267</v>
       </c>
       <c r="E6" t="n">
-        <v>30807.62774424535</v>
+        <v>30797.59033603226</v>
       </c>
       <c r="F6" t="n">
-        <v>28862.07239974782</v>
+        <v>28913.52741529102</v>
       </c>
       <c r="G6" t="n">
-        <v>28862.07239974782</v>
+        <v>28913.52741529102</v>
       </c>
       <c r="H6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="I6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="J6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="K6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="L6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="M6" t="n">
-        <v>-240.3842872837419</v>
+        <v>-282.3422700704924</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>28621.68811246407</v>
+        <v>28631.18514522052</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>43132</v>
       </c>
       <c r="C7" t="n">
-        <v>28885.913064388</v>
+        <v>28932.49819682793</v>
       </c>
       <c r="D7" t="n">
-        <v>22616.36858159586</v>
+        <v>22639.21480550881</v>
       </c>
       <c r="E7" t="n">
-        <v>27017.50136126902</v>
+        <v>27195.27119244314</v>
       </c>
       <c r="F7" t="n">
-        <v>28885.913064388</v>
+        <v>28932.49819682793</v>
       </c>
       <c r="G7" t="n">
-        <v>28885.913064388</v>
+        <v>28932.49819682793</v>
       </c>
       <c r="H7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="I7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="J7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="K7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="L7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="M7" t="n">
-        <v>-4045.4863365214</v>
+        <v>-4086.919381237114</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24840.4267278666</v>
+        <v>24845.57881559082</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>43160</v>
       </c>
       <c r="C8" t="n">
-        <v>28907.44656795449</v>
+        <v>28949.63309634006</v>
       </c>
       <c r="D8" t="n">
-        <v>26896.52733817757</v>
+        <v>26977.13820706256</v>
       </c>
       <c r="E8" t="n">
-        <v>31423.84670002825</v>
+        <v>31404.69621150626</v>
       </c>
       <c r="F8" t="n">
-        <v>28907.44656795449</v>
+        <v>28949.63309634006</v>
       </c>
       <c r="G8" t="n">
-        <v>28907.44656795449</v>
+        <v>28949.63309634006</v>
       </c>
       <c r="H8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="I8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="J8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="K8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="L8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="M8" t="n">
-        <v>308.7750717392992</v>
+        <v>275.1634208662015</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>29216.22163969379</v>
+        <v>29224.79651720626</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>43191</v>
       </c>
       <c r="C9" t="n">
-        <v>28931.2872326174</v>
+        <v>28968.60387794277</v>
       </c>
       <c r="D9" t="n">
-        <v>25712.36115102737</v>
+        <v>25905.98997362324</v>
       </c>
       <c r="E9" t="n">
-        <v>30135.7732237036</v>
+        <v>30320.81325237618</v>
       </c>
       <c r="F9" t="n">
-        <v>28931.2872326174</v>
+        <v>28968.60387794277</v>
       </c>
       <c r="G9" t="n">
-        <v>28931.2872326174</v>
+        <v>28968.60387794277</v>
       </c>
       <c r="H9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="I9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="J9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="K9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="L9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="M9" t="n">
-        <v>-982.375779972571</v>
+        <v>-1007.47594967691</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27948.91145264483</v>
+        <v>27961.12792826586</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>43221</v>
       </c>
       <c r="C10" t="n">
-        <v>28954.35884342018</v>
+        <v>28986.96269884845</v>
       </c>
       <c r="D10" t="n">
-        <v>24990.16877027519</v>
+        <v>25043.74513690559</v>
       </c>
       <c r="E10" t="n">
-        <v>29494.73501463628</v>
+        <v>29595.32165770025</v>
       </c>
       <c r="F10" t="n">
-        <v>28954.35884342018</v>
+        <v>28986.96269884845</v>
       </c>
       <c r="G10" t="n">
-        <v>28954.35884342018</v>
+        <v>28986.96269884845</v>
       </c>
       <c r="H10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="I10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="J10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="K10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="L10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="M10" t="n">
-        <v>-1650.786108835733</v>
+        <v>-1672.545542268899</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27303.57273458445</v>
+        <v>27314.41715657955</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43252</v>
       </c>
       <c r="C11" t="n">
-        <v>28978.19950791638</v>
+        <v>29005.93348045097</v>
       </c>
       <c r="D11" t="n">
-        <v>25260.40929163879</v>
+        <v>25351.99514820882</v>
       </c>
       <c r="E11" t="n">
-        <v>29688.14920451292</v>
+        <v>29696.36711302125</v>
       </c>
       <c r="F11" t="n">
-        <v>28978.19950791638</v>
+        <v>29005.93348045097</v>
       </c>
       <c r="G11" t="n">
-        <v>28978.19950791638</v>
+        <v>29005.93348045097</v>
       </c>
       <c r="H11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="I11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="J11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="K11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="L11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="M11" t="n">
-        <v>-1572.960231633772</v>
+        <v>-1409.389669687493</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>27405.23927628261</v>
+        <v>27596.54381076348</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43282</v>
       </c>
       <c r="C12" t="n">
-        <v>29001.27111870974</v>
+        <v>29024.29230124183</v>
       </c>
       <c r="D12" t="n">
-        <v>27972.84696452868</v>
+        <v>27873.51658272012</v>
       </c>
       <c r="E12" t="n">
-        <v>32725.52685522352</v>
+        <v>32576.52052908485</v>
       </c>
       <c r="F12" t="n">
-        <v>29001.27111870974</v>
+        <v>29024.29230124183</v>
       </c>
       <c r="G12" t="n">
-        <v>29001.27111870974</v>
+        <v>29024.29230124183</v>
       </c>
       <c r="H12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="I12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="J12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="K12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="M12" t="n">
-        <v>1206.050876696877</v>
+        <v>1153.684799667951</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>30207.32199540662</v>
+        <v>30177.97710090978</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43313</v>
       </c>
       <c r="C13" t="n">
-        <v>29025.1117831962</v>
+        <v>29043.26308272572</v>
       </c>
       <c r="D13" t="n">
-        <v>29261.54383760864</v>
+        <v>29051.756925765</v>
       </c>
       <c r="E13" t="n">
-        <v>33742.77499007913</v>
+        <v>33548.09118297633</v>
       </c>
       <c r="F13" t="n">
-        <v>29025.1117831962</v>
+        <v>29043.26308272572</v>
       </c>
       <c r="G13" t="n">
-        <v>29025.1117831962</v>
+        <v>29043.26308272572</v>
       </c>
       <c r="H13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="I13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="J13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="K13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="L13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="M13" t="n">
-        <v>2403.957305932158</v>
+        <v>2348.916981189324</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>31429.06908912836</v>
+        <v>31392.18006391504</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43344</v>
       </c>
       <c r="C14" t="n">
-        <v>29048.95244748817</v>
+        <v>29062.23386434164</v>
       </c>
       <c r="D14" t="n">
-        <v>27290.82340943377</v>
+        <v>27226.14738506755</v>
       </c>
       <c r="E14" t="n">
-        <v>31886.61041859235</v>
+        <v>31705.22790770171</v>
       </c>
       <c r="F14" t="n">
-        <v>29048.95244748817</v>
+        <v>29062.23386434164</v>
       </c>
       <c r="G14" t="n">
-        <v>29048.95244748817</v>
+        <v>29062.23386434164</v>
       </c>
       <c r="H14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="I14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="J14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="K14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="L14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="M14" t="n">
-        <v>550.5825000898549</v>
+        <v>489.1016454566754</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>29599.53494757803</v>
+        <v>29551.33550979831</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43374</v>
       </c>
       <c r="C15" t="n">
-        <v>29072.02405821531</v>
+        <v>29080.59268526027</v>
       </c>
       <c r="D15" t="n">
-        <v>27902.04459199317</v>
+        <v>28013.16737864557</v>
       </c>
       <c r="E15" t="n">
-        <v>32640.01907642913</v>
+        <v>32450.04206933058</v>
       </c>
       <c r="F15" t="n">
-        <v>29072.02405821531</v>
+        <v>29080.59268526027</v>
       </c>
       <c r="G15" t="n">
-        <v>29072.02405821531</v>
+        <v>29080.59268526027</v>
       </c>
       <c r="H15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="I15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="J15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="K15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="L15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.020371026854</v>
+        <v>1094.376063324367</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>30227.04442924216</v>
+        <v>30174.96874858464</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43405</v>
       </c>
       <c r="C16" t="n">
-        <v>29095.86472263333</v>
+        <v>29099.56346696907</v>
       </c>
       <c r="D16" t="n">
-        <v>25638.09829106596</v>
+        <v>25459.87550490447</v>
       </c>
       <c r="E16" t="n">
-        <v>30088.66407132795</v>
+        <v>30208.9990174915</v>
       </c>
       <c r="F16" t="n">
-        <v>29095.86472263333</v>
+        <v>29099.56346696907</v>
       </c>
       <c r="G16" t="n">
-        <v>29095.86472263333</v>
+        <v>29099.56346696907</v>
       </c>
       <c r="H16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="I16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="J16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="K16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="L16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="M16" t="n">
-        <v>-1197.219511236749</v>
+        <v>-1249.960072570611</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27898.64521139659</v>
+        <v>27849.60339439846</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43435</v>
       </c>
       <c r="C17" t="n">
-        <v>29118.93633313958</v>
+        <v>29117.92228806983</v>
       </c>
       <c r="D17" t="n">
-        <v>23629.427584986</v>
+        <v>23634.08459974681</v>
       </c>
       <c r="E17" t="n">
-        <v>28085.75808917939</v>
+        <v>28042.35301788099</v>
       </c>
       <c r="F17" t="n">
-        <v>29118.93633313958</v>
+        <v>29117.92228806983</v>
       </c>
       <c r="G17" t="n">
-        <v>29118.93633313958</v>
+        <v>29117.92228806983</v>
       </c>
       <c r="H17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="I17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="J17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="K17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="L17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="M17" t="n">
-        <v>-3265.031945310967</v>
+        <v>-3304.873277466804</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>25853.90438782861</v>
+        <v>25813.04901060303</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43466</v>
       </c>
       <c r="C18" t="n">
-        <v>29142.77699732937</v>
+        <v>29136.89306987394</v>
       </c>
       <c r="D18" t="n">
-        <v>27609.29161750436</v>
+        <v>27409.49335216776</v>
       </c>
       <c r="E18" t="n">
-        <v>32056.54493987642</v>
+        <v>31982.3807998688</v>
       </c>
       <c r="F18" t="n">
-        <v>29142.77699732937</v>
+        <v>29136.89306987394</v>
       </c>
       <c r="G18" t="n">
-        <v>29142.77699732937</v>
+        <v>29136.89306987394</v>
       </c>
       <c r="H18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="I18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="J18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="K18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="L18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="M18" t="n">
-        <v>634.3604497694745</v>
+        <v>611.0952335140739</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>29777.13744709885</v>
+        <v>29747.98830338802</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43497</v>
       </c>
       <c r="C19" t="n">
-        <v>29166.61766154774</v>
+        <v>29155.82948898648</v>
       </c>
       <c r="D19" t="n">
-        <v>23757.79425114863</v>
+        <v>23677.40750864931</v>
       </c>
       <c r="E19" t="n">
-        <v>28197.2427159757</v>
+        <v>28337.24843375836</v>
       </c>
       <c r="F19" t="n">
-        <v>29166.61766154774</v>
+        <v>29155.82948898648</v>
       </c>
       <c r="G19" t="n">
-        <v>29166.61766154774</v>
+        <v>29155.82948898648</v>
       </c>
       <c r="H19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="I19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="J19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="K19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="L19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="M19" t="n">
-        <v>-3077.880178001072</v>
+        <v>-3085.645609473081</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>26088.73748354667</v>
+        <v>26070.1838795134</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43525</v>
       </c>
       <c r="C20" t="n">
-        <v>29188.15116471271</v>
+        <v>29172.93335141071</v>
       </c>
       <c r="D20" t="n">
-        <v>26275.79020906781</v>
+        <v>26096.86562676156</v>
       </c>
       <c r="E20" t="n">
-        <v>30743.97460093618</v>
+        <v>30846.39777032294</v>
       </c>
       <c r="F20" t="n">
-        <v>29188.15116471271</v>
+        <v>29172.93335141071</v>
       </c>
       <c r="G20" t="n">
-        <v>29188.15116471271</v>
+        <v>29172.93335141071</v>
       </c>
       <c r="H20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="I20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="J20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="K20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="L20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="M20" t="n">
-        <v>-659.3254028098113</v>
+        <v>-719.0467281913399</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>28528.8257619029</v>
+        <v>28453.88662321937</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43556</v>
       </c>
       <c r="C21" t="n">
-        <v>29211.99182908581</v>
+        <v>29191.8697702131</v>
       </c>
       <c r="D21" t="n">
-        <v>25003.02239095129</v>
+        <v>25008.56286912101</v>
       </c>
       <c r="E21" t="n">
-        <v>29659.09410835695</v>
+        <v>29487.76135598718</v>
       </c>
       <c r="F21" t="n">
-        <v>29211.99182908581</v>
+        <v>29191.8697702131</v>
       </c>
       <c r="G21" t="n">
-        <v>29211.99182908581</v>
+        <v>29191.8697702131</v>
       </c>
       <c r="H21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="I21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="J21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="K21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="L21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="M21" t="n">
-        <v>-1953.579791111077</v>
+        <v>-1996.332403395825</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27258.41203797474</v>
+        <v>27195.53736681728</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43586</v>
       </c>
       <c r="C22" t="n">
-        <v>29235.06343984974</v>
+        <v>29210.19533679605</v>
       </c>
       <c r="D22" t="n">
-        <v>26048.89295218696</v>
+        <v>26158.91970187889</v>
       </c>
       <c r="E22" t="n">
-        <v>30909.68355590256</v>
+        <v>30896.49970205197</v>
       </c>
       <c r="F22" t="n">
-        <v>29235.06343984974</v>
+        <v>29210.19533679605</v>
       </c>
       <c r="G22" t="n">
-        <v>29235.06343984974</v>
+        <v>29210.19533679605</v>
       </c>
       <c r="H22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="I22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="J22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="K22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="L22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="M22" t="n">
-        <v>-763.9431806094561</v>
+        <v>-807.2772489045567</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28471.12025924028</v>
+        <v>28402.91808789149</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43617</v>
       </c>
       <c r="C23" t="n">
-        <v>29258.9041043058</v>
+        <v>29229.13175565298</v>
       </c>
       <c r="D23" t="n">
-        <v>25202.37925620392</v>
+        <v>25079.49343802981</v>
       </c>
       <c r="E23" t="n">
-        <v>29534.10434741023</v>
+        <v>29694.04051745039</v>
       </c>
       <c r="F23" t="n">
-        <v>29258.9041043058</v>
+        <v>29229.13175565298</v>
       </c>
       <c r="G23" t="n">
-        <v>29258.9041043058</v>
+        <v>29229.13175565298</v>
       </c>
       <c r="H23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="I23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="J23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="K23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="L23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="M23" t="n">
-        <v>-1956.7839805396</v>
+        <v>-1768.059594452834</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>27302.1201237662</v>
+        <v>27461.07216120015</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43647</v>
       </c>
       <c r="C24" t="n">
-        <v>29281.97571493009</v>
+        <v>29247.45732228872</v>
       </c>
       <c r="D24" t="n">
-        <v>28897.35725969414</v>
+        <v>29023.89890852634</v>
       </c>
       <c r="E24" t="n">
-        <v>33577.93685979103</v>
+        <v>33456.70854562397</v>
       </c>
       <c r="F24" t="n">
-        <v>29281.97571493009</v>
+        <v>29247.45732228872</v>
       </c>
       <c r="G24" t="n">
-        <v>29281.97571493009</v>
+        <v>29247.45732228872</v>
       </c>
       <c r="H24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="I24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="J24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="K24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="L24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="M24" t="n">
-        <v>1884.682525145386</v>
+        <v>1855.056002908257</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>31166.65824007547</v>
+        <v>31102.51332519697</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43678</v>
       </c>
       <c r="C25" t="n">
-        <v>29305.81637924187</v>
+        <v>29266.39374126689</v>
       </c>
       <c r="D25" t="n">
-        <v>29925.1018269216</v>
+        <v>29908.93536004539</v>
       </c>
       <c r="E25" t="n">
-        <v>34484.0046992507</v>
+        <v>34473.8686233818</v>
       </c>
       <c r="F25" t="n">
-        <v>29305.81637924187</v>
+        <v>29266.39374126689</v>
       </c>
       <c r="G25" t="n">
-        <v>29305.81637924187</v>
+        <v>29266.39374126689</v>
       </c>
       <c r="H25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="I25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="J25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="K25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="L25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="M25" t="n">
-        <v>2858.549851045075</v>
+        <v>2808.6089104224</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32164.36623028694</v>
+        <v>32075.00265168929</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43709</v>
       </c>
       <c r="C26" t="n">
-        <v>29329.65704367076</v>
+        <v>29285.33016011201</v>
       </c>
       <c r="D26" t="n">
-        <v>26666.96198177258</v>
+        <v>26562.96536120432</v>
       </c>
       <c r="E26" t="n">
-        <v>31389.16477253936</v>
+        <v>31338.58651187559</v>
       </c>
       <c r="F26" t="n">
-        <v>29329.65704367076</v>
+        <v>29285.33016011201</v>
       </c>
       <c r="G26" t="n">
-        <v>29329.65704367076</v>
+        <v>29285.33016011201</v>
       </c>
       <c r="H26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="I26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="J26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="K26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="L26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="M26" t="n">
-        <v>-281.1251173396167</v>
+        <v>-352.5853250984501</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>29048.53192633115</v>
+        <v>28932.74483501356</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43739</v>
       </c>
       <c r="C27" t="n">
-        <v>29352.72865440841</v>
+        <v>29303.65572673631</v>
       </c>
       <c r="D27" t="n">
-        <v>28074.43049479136</v>
+        <v>27992.74293382252</v>
       </c>
       <c r="E27" t="n">
-        <v>33071.61701875971</v>
+        <v>32707.6474396439</v>
       </c>
       <c r="F27" t="n">
-        <v>29352.72865440841</v>
+        <v>29303.65572673631</v>
       </c>
       <c r="G27" t="n">
-        <v>29352.72865440841</v>
+        <v>29303.65572673631</v>
       </c>
       <c r="H27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="I27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="J27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="K27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="L27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="M27" t="n">
-        <v>1151.645843864685</v>
+        <v>1074.562131734744</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>30504.37449827309</v>
+        <v>30378.21785847106</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43770</v>
       </c>
       <c r="C28" t="n">
-        <v>29376.56931873617</v>
+        <v>29322.59214561775</v>
       </c>
       <c r="D28" t="n">
-        <v>25711.01593999521</v>
+        <v>25695.48827430751</v>
       </c>
       <c r="E28" t="n">
-        <v>30250.34939188857</v>
+        <v>30303.11778305399</v>
       </c>
       <c r="F28" t="n">
-        <v>29376.56931873617</v>
+        <v>29322.59214561775</v>
       </c>
       <c r="G28" t="n">
-        <v>29376.56931873617</v>
+        <v>29322.59214561775</v>
       </c>
       <c r="H28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="I28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="J28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="K28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="L28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="M28" t="n">
-        <v>-1286.337668926929</v>
+        <v>-1351.395140356522</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28090.23164980924</v>
+        <v>27971.19700526122</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43800</v>
       </c>
       <c r="C29" t="n">
-        <v>29399.64092934245</v>
+        <v>29340.9177122772</v>
       </c>
       <c r="D29" t="n">
-        <v>23360.1522356263</v>
+        <v>23229.71211777908</v>
       </c>
       <c r="E29" t="n">
-        <v>28073.15820517053</v>
+        <v>27795.97087199337</v>
       </c>
       <c r="F29" t="n">
-        <v>29399.64092934245</v>
+        <v>29340.9177122772</v>
       </c>
       <c r="G29" t="n">
-        <v>29399.64092934245</v>
+        <v>29340.9177122772</v>
       </c>
       <c r="H29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="I29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="J29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="K29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="L29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="M29" t="n">
-        <v>-3792.135654164812</v>
+        <v>-3831.451149395485</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>25607.50527517763</v>
+        <v>25509.46656288172</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43831</v>
       </c>
       <c r="C30" t="n">
-        <v>29423.4815936356</v>
+        <v>29359.85413106391</v>
       </c>
       <c r="D30" t="n">
-        <v>28626.08132255404</v>
+        <v>28575.87500504863</v>
       </c>
       <c r="E30" t="n">
-        <v>33270.93251102818</v>
+        <v>32919.00776809228</v>
       </c>
       <c r="F30" t="n">
-        <v>29423.4815936356</v>
+        <v>29359.85413106391</v>
       </c>
       <c r="G30" t="n">
-        <v>29423.4815936356</v>
+        <v>29359.85413106391</v>
       </c>
       <c r="H30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="I30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="J30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="K30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="M30" t="n">
-        <v>1525.804158182503</v>
+        <v>1521.695485716701</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>30949.2857518181</v>
+        <v>30881.54961678061</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43862</v>
       </c>
       <c r="C31" t="n">
-        <v>29447.32201033608</v>
+        <v>29378.79054985062</v>
       </c>
       <c r="D31" t="n">
-        <v>24943.23170938975</v>
+        <v>24998.41114960713</v>
       </c>
       <c r="E31" t="n">
-        <v>29568.93818166325</v>
+        <v>29603.6892630369</v>
       </c>
       <c r="F31" t="n">
-        <v>29447.32201033608</v>
+        <v>29378.79054985062</v>
       </c>
       <c r="G31" t="n">
-        <v>29447.32201033608</v>
+        <v>29378.79054985062</v>
       </c>
       <c r="H31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="I31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="J31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="K31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="L31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="M31" t="n">
-        <v>-2131.972270380686</v>
+        <v>-2106.667655770723</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27315.34973995539</v>
+        <v>27272.1228940799</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43891</v>
       </c>
       <c r="C32" t="n">
-        <v>29469.62433563653</v>
+        <v>29396.41358254035</v>
       </c>
       <c r="D32" t="n">
-        <v>29530.61986927128</v>
+        <v>29515.20499257963</v>
       </c>
       <c r="E32" t="n">
-        <v>34065.74372362292</v>
+        <v>33748.67905522353</v>
       </c>
       <c r="F32" t="n">
-        <v>29469.62433563653</v>
+        <v>29396.41358254035</v>
       </c>
       <c r="G32" t="n">
-        <v>29469.62433563653</v>
+        <v>29396.41358254035</v>
       </c>
       <c r="H32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="I32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="J32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="K32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="L32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="M32" t="n">
-        <v>2170.336342425991</v>
+        <v>2186.572721037288</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>31639.96067806252</v>
+        <v>31582.98630357764</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43922</v>
       </c>
       <c r="C33" t="n">
-        <v>29493.41233227188</v>
+        <v>29415.25199679489</v>
       </c>
       <c r="D33" t="n">
-        <v>28264.70651927966</v>
+        <v>28402.08122407576</v>
       </c>
       <c r="E33" t="n">
-        <v>32869.88385271046</v>
+        <v>32626.01012223879</v>
       </c>
       <c r="F33" t="n">
-        <v>29493.41233227188</v>
+        <v>29415.25199679489</v>
       </c>
       <c r="G33" t="n">
-        <v>29493.41233227188</v>
+        <v>29415.25199679489</v>
       </c>
       <c r="H33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="I33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="J33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="K33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="L33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="M33" t="n">
-        <v>1018.63455448027</v>
+        <v>1028.874941270975</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>30512.04688675215</v>
+        <v>30444.12693806586</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43952</v>
       </c>
       <c r="C34" t="n">
-        <v>29516.43297417705</v>
+        <v>29433.22433157327</v>
       </c>
       <c r="D34" t="n">
-        <v>23856.9467430232</v>
+        <v>23677.59802508712</v>
       </c>
       <c r="E34" t="n">
-        <v>28499.66516530886</v>
+        <v>28451.9751619749</v>
       </c>
       <c r="F34" t="n">
-        <v>29516.43297417705</v>
+        <v>29433.22433157327</v>
       </c>
       <c r="G34" t="n">
-        <v>29516.43297417705</v>
+        <v>29433.22433157327</v>
       </c>
       <c r="H34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="I34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="J34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="K34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="L34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="M34" t="n">
-        <v>-3375.904775532353</v>
+        <v>-3351.874950215601</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>26140.5281986447</v>
+        <v>26081.34938135766</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43983</v>
       </c>
       <c r="C35" t="n">
-        <v>29540.12229489792</v>
+        <v>29451.78430742239</v>
       </c>
       <c r="D35" t="n">
-        <v>26587.0373057158</v>
+        <v>26514.96378054367</v>
       </c>
       <c r="E35" t="n">
-        <v>31052.19622365145</v>
+        <v>30977.78155732021</v>
       </c>
       <c r="F35" t="n">
-        <v>29540.12229489792</v>
+        <v>29451.78430742239</v>
       </c>
       <c r="G35" t="n">
-        <v>29540.12229489792</v>
+        <v>29451.78430742239</v>
       </c>
       <c r="H35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="I35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="J35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="K35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="L35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="M35" t="n">
-        <v>-789.5066850682801</v>
+        <v>-673.9766681796525</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>28750.61560982963</v>
+        <v>28777.80763924274</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>44013</v>
       </c>
       <c r="C36" t="n">
-        <v>29296.82353767727</v>
+        <v>29469.74557437316</v>
       </c>
       <c r="D36" t="n">
-        <v>26980.04406861786</v>
+        <v>26984.04884992594</v>
       </c>
       <c r="E36" t="n">
-        <v>31378.85680956386</v>
+        <v>31538.64809275208</v>
       </c>
       <c r="F36" t="n">
-        <v>29296.82353767727</v>
+        <v>29469.74557437316</v>
       </c>
       <c r="G36" t="n">
-        <v>29296.82353767727</v>
+        <v>29469.74557437316</v>
       </c>
       <c r="H36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="I36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="J36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="K36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="L36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="M36" t="n">
-        <v>-138.3092562637022</v>
+        <v>-236.7978523839666</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>29158.51428141357</v>
+        <v>29232.94772198919</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>44044</v>
       </c>
       <c r="C37" t="n">
-        <v>29045.4148218826</v>
+        <v>29211.14601158244</v>
       </c>
       <c r="D37" t="n">
-        <v>28063.06263011257</v>
+        <v>28168.4926884732</v>
       </c>
       <c r="E37" t="n">
-        <v>32668.20699635973</v>
+        <v>32834.8176880381</v>
       </c>
       <c r="F37" t="n">
-        <v>29045.4148218826</v>
+        <v>29211.14601158244</v>
       </c>
       <c r="G37" t="n">
-        <v>29045.4148218826</v>
+        <v>29211.14601158244</v>
       </c>
       <c r="H37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="I37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="J37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="K37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="L37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="M37" t="n">
-        <v>1424.829583029711</v>
+        <v>1357.506225542217</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>30470.24440491231</v>
+        <v>30568.65223712465</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>44075</v>
       </c>
       <c r="C38" t="n">
-        <v>28793.60612056478</v>
+        <v>28952.54644879172</v>
       </c>
       <c r="D38" t="n">
-        <v>28970.82984762876</v>
+        <v>28763.42464335265</v>
       </c>
       <c r="E38" t="n">
-        <v>33285.09315780933</v>
+        <v>33305.35309441215</v>
       </c>
       <c r="F38" t="n">
-        <v>28793.60612056478</v>
+        <v>28952.54644879172</v>
       </c>
       <c r="G38" t="n">
-        <v>28793.60612056478</v>
+        <v>28952.54644879172</v>
       </c>
       <c r="H38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="I38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="J38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="K38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="L38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="M38" t="n">
-        <v>2176.096127610039</v>
+        <v>2132.873607302955</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>30969.70224817482</v>
+        <v>31085.42005609467</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>44105</v>
       </c>
       <c r="C39" t="n">
-        <v>28549.9202805798</v>
+        <v>28702.02169625082</v>
       </c>
       <c r="D39" t="n">
-        <v>27377.16545045453</v>
+        <v>27512.96280114301</v>
       </c>
       <c r="E39" t="n">
-        <v>32047.78870479627</v>
+        <v>32184.01134180589</v>
       </c>
       <c r="F39" t="n">
-        <v>28549.9202805798</v>
+        <v>28702.02169625082</v>
       </c>
       <c r="G39" t="n">
-        <v>28549.9202805798</v>
+        <v>28702.02169625082</v>
       </c>
       <c r="H39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="I39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="J39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="K39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="L39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="M39" t="n">
-        <v>1179.791777253184</v>
+        <v>1151.860331930526</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>29729.71205783298</v>
+        <v>29853.88202818135</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>44136</v>
       </c>
       <c r="C40" t="n">
-        <v>28297.79793729262</v>
+        <v>28443.14611862524</v>
       </c>
       <c r="D40" t="n">
-        <v>24730.48588009113</v>
+        <v>25108.70442186403</v>
       </c>
       <c r="E40" t="n">
-        <v>29693.44412245802</v>
+        <v>29641.14132521035</v>
       </c>
       <c r="F40" t="n">
-        <v>28297.79793729262</v>
+        <v>28443.14611862524</v>
       </c>
       <c r="G40" t="n">
-        <v>28297.79793729262</v>
+        <v>28443.14611862524</v>
       </c>
       <c r="H40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="I40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="J40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="K40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="L40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="M40" t="n">
-        <v>-1014.550635837453</v>
+        <v>-1041.421214628802</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27283.24730145516</v>
+        <v>27401.72490399644</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>44166</v>
       </c>
       <c r="C41" t="n">
-        <v>28053.80857282116</v>
+        <v>28192.53109865287</v>
       </c>
       <c r="D41" t="n">
-        <v>23706.52821917252</v>
+        <v>23671.9854817935</v>
       </c>
       <c r="E41" t="n">
-        <v>28182.14529399313</v>
+        <v>28287.43424738751</v>
       </c>
       <c r="F41" t="n">
-        <v>28053.80857282116</v>
+        <v>28192.53109865287</v>
       </c>
       <c r="G41" t="n">
-        <v>28053.80857282116</v>
+        <v>28192.53109865287</v>
       </c>
       <c r="H41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="I41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="J41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="K41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="L41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="M41" t="n">
-        <v>-2149.173528468254</v>
+        <v>-2187.953814170979</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25904.6350443529</v>
+        <v>26004.57728448189</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>44197</v>
       </c>
       <c r="C42" t="n">
-        <v>27801.409449978</v>
+        <v>27933.56224468142</v>
       </c>
       <c r="D42" t="n">
-        <v>24340.54118712792</v>
+        <v>24647.31476463327</v>
       </c>
       <c r="E42" t="n">
-        <v>28747.77418904174</v>
+        <v>29008.65166571621</v>
       </c>
       <c r="F42" t="n">
-        <v>27801.409449978</v>
+        <v>27933.56224468142</v>
       </c>
       <c r="G42" t="n">
-        <v>27801.409449978</v>
+        <v>27933.56224468142</v>
       </c>
       <c r="H42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="I42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="J42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="K42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="L42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="M42" t="n">
-        <v>-1097.249344511317</v>
+        <v>-1157.403148277746</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>26704.16010546668</v>
+        <v>26776.15909640368</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>44228</v>
       </c>
       <c r="C43" t="n">
-        <v>27548.84719295649</v>
+        <v>27674.54526254075</v>
       </c>
       <c r="D43" t="n">
-        <v>20111.99789920263</v>
+        <v>20313.6212919777</v>
       </c>
       <c r="E43" t="n">
-        <v>24827.17368506824</v>
+        <v>24844.58134738498</v>
       </c>
       <c r="F43" t="n">
-        <v>27548.84719295649</v>
+        <v>27674.54526254075</v>
       </c>
       <c r="G43" t="n">
-        <v>27548.84719295649</v>
+        <v>27674.54526254075</v>
       </c>
       <c r="H43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="I43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="J43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="K43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="L43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="M43" t="n">
-        <v>-5033.525132828736</v>
+        <v>-5109.180148636687</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22515.32206012776</v>
+        <v>22565.36511390406</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44256</v>
       </c>
       <c r="C44" t="n">
-        <v>27320.72644467901</v>
+        <v>27440.57341163655</v>
       </c>
       <c r="D44" t="n">
-        <v>26186.79117076549</v>
+        <v>26276.63261282179</v>
       </c>
       <c r="E44" t="n">
-        <v>30947.32645951713</v>
+        <v>31069.74148176278</v>
       </c>
       <c r="F44" t="n">
-        <v>27320.72644467901</v>
+        <v>27440.57341163655</v>
       </c>
       <c r="G44" t="n">
-        <v>27320.72644467901</v>
+        <v>27440.57341163655</v>
       </c>
       <c r="H44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="I44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="J44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="K44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="L44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="M44" t="n">
-        <v>1252.406065765218</v>
+        <v>1244.12390525744</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>28573.13251044423</v>
+        <v>28684.69731689398</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44287</v>
       </c>
       <c r="C45" t="n">
-        <v>27068.04108243448</v>
+        <v>27181.53314813546</v>
       </c>
       <c r="D45" t="n">
-        <v>24709.04843443422</v>
+        <v>24981.07514986261</v>
       </c>
       <c r="E45" t="n">
-        <v>29331.75783411076</v>
+        <v>29666.14286523731</v>
       </c>
       <c r="F45" t="n">
-        <v>27068.04108243448</v>
+        <v>27181.53314813546</v>
       </c>
       <c r="G45" t="n">
-        <v>27068.04108243448</v>
+        <v>27181.53314813546</v>
       </c>
       <c r="H45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="I45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="J45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="K45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="L45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="M45" t="n">
-        <v>8.791340900728908</v>
+        <v>1.367470752736555</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27076.83242333521</v>
+        <v>27182.9006188882</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44317</v>
       </c>
       <c r="C46" t="n">
-        <v>26823.5068609075</v>
+        <v>26930.84902214769</v>
       </c>
       <c r="D46" t="n">
-        <v>21872.18385114272</v>
+        <v>22146.8792256449</v>
       </c>
       <c r="E46" t="n">
-        <v>26499.26152200225</v>
+        <v>26778.86613845085</v>
       </c>
       <c r="F46" t="n">
-        <v>26823.5068609075</v>
+        <v>26930.84902214769</v>
       </c>
       <c r="G46" t="n">
-        <v>26823.5068609075</v>
+        <v>26930.84902214769</v>
       </c>
       <c r="H46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="I46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="J46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="K46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="L46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="M46" t="n">
-        <v>-2521.652857893319</v>
+        <v>-2520.949690817392</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24301.85400301418</v>
+        <v>24409.89933133029</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44348</v>
       </c>
       <c r="C47" t="n">
-        <v>26570.79608754247</v>
+        <v>26671.80875862699</v>
       </c>
       <c r="D47" t="n">
-        <v>23171.7667086081</v>
+        <v>23343.48100387822</v>
       </c>
       <c r="E47" t="n">
-        <v>27618.60949356766</v>
+        <v>27991.14255964285</v>
       </c>
       <c r="F47" t="n">
-        <v>26570.79608754247</v>
+        <v>26671.80875862699</v>
       </c>
       <c r="G47" t="n">
-        <v>26570.79608754247</v>
+        <v>26671.80875862699</v>
       </c>
       <c r="H47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="I47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="J47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="K47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="L47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="M47" t="n">
-        <v>-1183.871182324368</v>
+        <v>-1044.708321335411</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>25386.9249052181</v>
+        <v>25627.10043729157</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44378</v>
       </c>
       <c r="C48" t="n">
-        <v>26326.23727460856</v>
+        <v>26421.12463262569</v>
       </c>
       <c r="D48" t="n">
-        <v>24636.74375569125</v>
+        <v>24634.17634960791</v>
       </c>
       <c r="E48" t="n">
-        <v>29138.73103328209</v>
+        <v>29123.39655816513</v>
       </c>
       <c r="F48" t="n">
-        <v>26326.23727460856</v>
+        <v>26421.12463262569</v>
       </c>
       <c r="G48" t="n">
-        <v>26326.23727460856</v>
+        <v>26421.12463262569</v>
       </c>
       <c r="H48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="I48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="J48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="K48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="L48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="M48" t="n">
-        <v>531.4196145380125</v>
+        <v>456.0875521799595</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>26857.65688914658</v>
+        <v>26877.21218480565</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44409</v>
       </c>
       <c r="C49" t="n">
-        <v>26073.52650124353</v>
+        <v>26162.08436909101</v>
       </c>
       <c r="D49" t="n">
-        <v>25741.45033174381</v>
+        <v>25820.75612833738</v>
       </c>
       <c r="E49" t="n">
-        <v>30415.98374103132</v>
+        <v>30289.74144734551</v>
       </c>
       <c r="F49" t="n">
-        <v>26073.52650124353</v>
+        <v>26162.08436909101</v>
       </c>
       <c r="G49" t="n">
-        <v>26073.52650124353</v>
+        <v>26162.08436909101</v>
       </c>
       <c r="H49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="I49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="J49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="K49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="L49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="M49" t="n">
-        <v>1925.873721823383</v>
+        <v>1865.035252700407</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>27999.40022306691</v>
+        <v>28027.11962179141</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44440</v>
       </c>
       <c r="C50" t="n">
-        <v>25820.8157278785</v>
+        <v>25903.04410555633</v>
       </c>
       <c r="D50" t="n">
-        <v>24721.48078848535</v>
+        <v>24987.3427355405</v>
       </c>
       <c r="E50" t="n">
-        <v>29383.63927910664</v>
+        <v>29573.10314083807</v>
       </c>
       <c r="F50" t="n">
-        <v>25820.8157278785</v>
+        <v>25903.04410555633</v>
       </c>
       <c r="G50" t="n">
-        <v>25820.8157278785</v>
+        <v>25903.04410555633</v>
       </c>
       <c r="H50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="I50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="J50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="K50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="L50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="M50" t="n">
-        <v>1369.937183505883</v>
+        <v>1317.873547583397</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>27190.75291138438</v>
+        <v>27220.91765313972</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44470</v>
       </c>
       <c r="C51" t="n">
-        <v>25576.2569149446</v>
+        <v>25652.35997955503</v>
       </c>
       <c r="D51" t="n">
-        <v>24308.44150797988</v>
+        <v>24570.53753205707</v>
       </c>
       <c r="E51" t="n">
-        <v>29047.92936213215</v>
+        <v>29212.03907499649</v>
       </c>
       <c r="F51" t="n">
-        <v>25576.2569149446</v>
+        <v>25652.35997955503</v>
       </c>
       <c r="G51" t="n">
-        <v>25576.2569149446</v>
+        <v>25652.35997955503</v>
       </c>
       <c r="H51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="I51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="J51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="K51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="L51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="M51" t="n">
-        <v>1164.514141482893</v>
+        <v>1120.26322215746</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>26740.77105642749</v>
+        <v>26772.62320171249</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44501</v>
       </c>
       <c r="C52" t="n">
-        <v>25323.54614157956</v>
+        <v>25393.31971602035</v>
       </c>
       <c r="D52" t="n">
-        <v>21953.39554008067</v>
+        <v>22144.51321173639</v>
       </c>
       <c r="E52" t="n">
-        <v>26555.40225263525</v>
+        <v>26547.6269099018</v>
       </c>
       <c r="F52" t="n">
-        <v>25323.54614157956</v>
+        <v>25393.31971602035</v>
       </c>
       <c r="G52" t="n">
-        <v>25323.54614157956</v>
+        <v>25393.31971602035</v>
       </c>
       <c r="H52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="I52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="J52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="K52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="L52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="M52" t="n">
-        <v>-1106.513021292247</v>
+        <v>-1146.517406610718</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>24217.03312028731</v>
+        <v>24246.80230940963</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44531</v>
       </c>
       <c r="C53" t="n">
-        <v>25078.98732864566</v>
+        <v>25142.63559001904</v>
       </c>
       <c r="D53" t="n">
-        <v>19974.21528710426</v>
+        <v>20128.76076298261</v>
       </c>
       <c r="E53" t="n">
-        <v>24564.87474262829</v>
+        <v>24568.57765423503</v>
       </c>
       <c r="F53" t="n">
-        <v>25078.98732864566</v>
+        <v>25142.63559001904</v>
       </c>
       <c r="G53" t="n">
-        <v>25078.98732864566</v>
+        <v>25142.63559001904</v>
       </c>
       <c r="H53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="I53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="J53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="K53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="L53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="M53" t="n">
-        <v>-2717.259583741159</v>
+        <v>-2756.923729728276</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>22361.7277449045</v>
+        <v>22385.71186029076</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44562</v>
       </c>
       <c r="C54" t="n">
-        <v>24826.27655528063</v>
+        <v>24883.59532648436</v>
       </c>
       <c r="D54" t="n">
-        <v>22205.74660327993</v>
+        <v>22376.40821603696</v>
       </c>
       <c r="E54" t="n">
-        <v>27000.20286789957</v>
+        <v>26906.69954102587</v>
       </c>
       <c r="F54" t="n">
-        <v>24826.27655528063</v>
+        <v>24883.59532648436</v>
       </c>
       <c r="G54" t="n">
-        <v>24826.27655528063</v>
+        <v>24883.59532648436</v>
       </c>
       <c r="H54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="I54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="J54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="K54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="L54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="M54" t="n">
-        <v>-240.3842872813014</v>
+        <v>-282.3422700677872</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>24585.89226799933</v>
+        <v>24601.25305641658</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44593</v>
       </c>
       <c r="C55" t="n">
-        <v>24573.56578191559</v>
+        <v>24624.55506294968</v>
       </c>
       <c r="D55" t="n">
-        <v>18100.59785821399</v>
+        <v>18321.77468535287</v>
       </c>
       <c r="E55" t="n">
-        <v>22707.55683694403</v>
+        <v>22600.95982441368</v>
       </c>
       <c r="F55" t="n">
-        <v>24573.56578191559</v>
+        <v>24624.55506294968</v>
       </c>
       <c r="G55" t="n">
-        <v>24573.56578191559</v>
+        <v>24624.55506294968</v>
       </c>
       <c r="H55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="I55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="J55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="K55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="L55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="M55" t="n">
-        <v>-4045.486336519635</v>
+        <v>-4086.919381235447</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>20528.07944539595</v>
+        <v>20537.63568171424</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44621</v>
       </c>
       <c r="C56" t="n">
-        <v>24345.31088984395</v>
+        <v>24390.58321201513</v>
       </c>
       <c r="D56" t="n">
-        <v>22459.92694844945</v>
+        <v>22401.36099038497</v>
       </c>
       <c r="E56" t="n">
-        <v>26935.9030950227</v>
+        <v>26879.63667845996</v>
       </c>
       <c r="F56" t="n">
-        <v>24345.31088984395</v>
+        <v>24390.58321201513</v>
       </c>
       <c r="G56" t="n">
-        <v>24345.31088984395</v>
+        <v>24390.58321201513</v>
       </c>
       <c r="H56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="I56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="J56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="K56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="L56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="M56" t="n">
-        <v>308.7750717421349</v>
+        <v>275.1634208689312</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>24654.08596158608</v>
+        <v>24665.74663288406</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44652</v>
       </c>
       <c r="C57" t="n">
-        <v>24092.60011647892</v>
+        <v>24131.54294848045</v>
       </c>
       <c r="D57" t="n">
-        <v>20826.92819477376</v>
+        <v>20837.15781652547</v>
       </c>
       <c r="E57" t="n">
-        <v>25509.02910672297</v>
+        <v>25462.35820822878</v>
       </c>
       <c r="F57" t="n">
-        <v>24092.60011647892</v>
+        <v>24131.54294848045</v>
       </c>
       <c r="G57" t="n">
-        <v>24092.60011647892</v>
+        <v>24131.54294848045</v>
       </c>
       <c r="H57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="I57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="J57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="K57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="L57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="M57" t="n">
-        <v>-982.3757799693969</v>
+        <v>-1007.475949673561</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>23110.22433650952</v>
+        <v>23124.06699880689</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44682</v>
       </c>
       <c r="C58" t="n">
-        <v>23848.04130354501</v>
+        <v>23880.85882247915</v>
       </c>
       <c r="D58" t="n">
-        <v>19872.76668599478</v>
+        <v>19780.17038400083</v>
       </c>
       <c r="E58" t="n">
-        <v>24673.48018375467</v>
+        <v>24607.58668445699</v>
       </c>
       <c r="F58" t="n">
-        <v>23848.04130354501</v>
+        <v>23880.85882247915</v>
       </c>
       <c r="G58" t="n">
-        <v>23848.04130354501</v>
+        <v>23880.85882247915</v>
       </c>
       <c r="H58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="I58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="J58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="K58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="L58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="M58" t="n">
-        <v>-1650.786108832575</v>
+        <v>-1672.545542265669</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>22197.25519471244</v>
+        <v>22208.31328021348</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44713</v>
       </c>
       <c r="C59" t="n">
-        <v>23595.33053017998</v>
+        <v>23621.81855894447</v>
       </c>
       <c r="D59" t="n">
-        <v>19725.18294596041</v>
+        <v>19884.54899782996</v>
       </c>
       <c r="E59" t="n">
-        <v>24398.04590935279</v>
+        <v>24358.03531154675</v>
       </c>
       <c r="F59" t="n">
-        <v>23591.31044234616</v>
+        <v>23621.81855894447</v>
       </c>
       <c r="G59" t="n">
-        <v>23598.12081400641</v>
+        <v>23621.81855894447</v>
       </c>
       <c r="H59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="I59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="J59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="K59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="L59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="M59" t="n">
-        <v>-1572.960231626538</v>
+        <v>-1409.389669680339</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>22022.37029855344</v>
+        <v>22212.42888926413</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44743</v>
       </c>
       <c r="C60" t="n">
-        <v>23350.77171724608</v>
+        <v>23371.13443294317</v>
       </c>
       <c r="D60" t="n">
-        <v>22291.87230182561</v>
+        <v>22269.57421250579</v>
       </c>
       <c r="E60" t="n">
-        <v>26889.29379469799</v>
+        <v>26807.37847049704</v>
       </c>
       <c r="F60" t="n">
-        <v>23333.4895041186</v>
+        <v>23368.81994266643</v>
       </c>
       <c r="G60" t="n">
-        <v>23365.18364108748</v>
+        <v>23372.57819419356</v>
       </c>
       <c r="H60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="I60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="J60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="K60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="L60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="M60" t="n">
-        <v>1206.05087669577</v>
+        <v>1153.68479966677</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>24556.82259394185</v>
+        <v>24524.81923260994</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44774</v>
       </c>
       <c r="C61" t="n">
-        <v>23098.06094388105</v>
+        <v>23112.09416940849</v>
       </c>
       <c r="D61" t="n">
-        <v>23196.91354860297</v>
+        <v>23066.67481396176</v>
       </c>
       <c r="E61" t="n">
-        <v>27772.37828912851</v>
+        <v>27728.03915652511</v>
       </c>
       <c r="F61" t="n">
-        <v>23059.69722814999</v>
+        <v>23097.12632795158</v>
       </c>
       <c r="G61" t="n">
-        <v>23128.44038750793</v>
+        <v>23121.96748025027</v>
       </c>
       <c r="H61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="I61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="J61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="K61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="L61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="M61" t="n">
-        <v>2403.957305930621</v>
+        <v>2348.916981187906</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>25502.01824981167</v>
+        <v>25461.01115059639</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44805</v>
       </c>
       <c r="C62" t="n">
-        <v>22845.35017051601</v>
+        <v>22853.05390587381</v>
       </c>
       <c r="D62" t="n">
-        <v>21105.42508185388</v>
+        <v>21058.14555364579</v>
       </c>
       <c r="E62" t="n">
-        <v>25654.30863999153</v>
+        <v>25603.1459040955</v>
       </c>
       <c r="F62" t="n">
-        <v>22783.25917978512</v>
+        <v>22821.65538546113</v>
       </c>
       <c r="G62" t="n">
-        <v>22893.59155906221</v>
+        <v>22876.52438072101</v>
       </c>
       <c r="H62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="I62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="J62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="K62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="L62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="M62" t="n">
-        <v>550.5825000846728</v>
+        <v>489.1016454514801</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>23395.93267060069</v>
+        <v>23342.15555132529</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44835</v>
       </c>
       <c r="C63" t="n">
-        <v>22600.79135758211</v>
+        <v>22602.36977987251</v>
       </c>
       <c r="D63" t="n">
-        <v>21555.59239446652</v>
+        <v>21375.67756421426</v>
       </c>
       <c r="E63" t="n">
-        <v>26095.91731376585</v>
+        <v>25903.1458394408</v>
       </c>
       <c r="F63" t="n">
-        <v>22516.57891954192</v>
+        <v>22553.14868497413</v>
       </c>
       <c r="G63" t="n">
-        <v>22669.14537492807</v>
+        <v>22641.14355191949</v>
       </c>
       <c r="H63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="I63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="J63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="K63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="L63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="M63" t="n">
-        <v>1155.02037102024</v>
+        <v>1094.376063317582</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>23755.81172860235</v>
+        <v>23696.74584319009</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44866</v>
       </c>
       <c r="C64" t="n">
-        <v>22348.08058421708</v>
+        <v>22343.32951633783</v>
       </c>
       <c r="D64" t="n">
-        <v>18757.2530887487</v>
+        <v>18772.22528064572</v>
       </c>
       <c r="E64" t="n">
-        <v>23443.15792452846</v>
+        <v>23311.05427331292</v>
       </c>
       <c r="F64" t="n">
-        <v>22237.33283549362</v>
+        <v>22267.08827711723</v>
       </c>
       <c r="G64" t="n">
-        <v>22439.97476089415</v>
+        <v>22401.57948734471</v>
       </c>
       <c r="H64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="I64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="J64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="K64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="L64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="M64" t="n">
-        <v>-1197.219511234802</v>
+        <v>-1249.960072568662</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>21150.86107298228</v>
+        <v>21093.36944376917</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44896</v>
       </c>
       <c r="C65" t="n">
-        <v>22103.52177128317</v>
+        <v>22092.64539033653</v>
       </c>
       <c r="D65" t="n">
-        <v>16357.7837603143</v>
+        <v>16253.43104584654</v>
       </c>
       <c r="E65" t="n">
-        <v>21059.79026081847</v>
+        <v>21223.21178640682</v>
       </c>
       <c r="F65" t="n">
-        <v>21962.77801499808</v>
+        <v>21993.86372081109</v>
       </c>
       <c r="G65" t="n">
-        <v>22224.3923604202</v>
+        <v>22171.99597744142</v>
       </c>
       <c r="H65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="I65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="J65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="K65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="L65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="M65" t="n">
-        <v>-3265.031945306504</v>
+        <v>-3304.873277462327</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>18838.48982597667</v>
+        <v>18787.7721128742</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44927</v>
       </c>
       <c r="C66" t="n">
-        <v>21850.81099791814</v>
+        <v>21833.60512680185</v>
       </c>
       <c r="D66" t="n">
-        <v>20251.25839798887</v>
+        <v>20107.68249733655</v>
       </c>
       <c r="E66" t="n">
-        <v>24911.80253197076</v>
+        <v>24685.70121004329</v>
       </c>
       <c r="F66" t="n">
-        <v>21680.15660560754</v>
+        <v>21707.93603602764</v>
       </c>
       <c r="G66" t="n">
-        <v>22004.31705698659</v>
+        <v>21939.81382346435</v>
       </c>
       <c r="H66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="I66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="J66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="K66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="L66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="M66" t="n">
-        <v>634.3604497653495</v>
+        <v>611.0952335097558</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>22485.17144768349</v>
+        <v>22444.70036031161</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44958</v>
       </c>
       <c r="C67" t="n">
-        <v>21598.10022455311</v>
+        <v>21574.56486326717</v>
       </c>
       <c r="D67" t="n">
-        <v>16140.29977104247</v>
+        <v>16168.60887659861</v>
       </c>
       <c r="E67" t="n">
-        <v>20844.26578471366</v>
+        <v>20576.22791220429</v>
       </c>
       <c r="F67" t="n">
-        <v>21391.36342278493</v>
+        <v>21415.77906012918</v>
       </c>
       <c r="G67" t="n">
-        <v>21780.32419945519</v>
+        <v>21704.93741411207</v>
       </c>
       <c r="H67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="I67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="J67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="K67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="L67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="M67" t="n">
-        <v>-3077.880177997013</v>
+        <v>-3085.645609468781</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>18520.2200465561</v>
+        <v>18488.91925379839</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44986</v>
       </c>
       <c r="C68" t="n">
-        <v>21369.84533248147</v>
+        <v>21340.59301233262</v>
       </c>
       <c r="D68" t="n">
-        <v>18284.32472310566</v>
+        <v>18240.37370716827</v>
       </c>
       <c r="E68" t="n">
-        <v>23108.94920748541</v>
+        <v>23011.72573844862</v>
       </c>
       <c r="F68" t="n">
-        <v>21133.73022510774</v>
+        <v>21148.00878022143</v>
       </c>
       <c r="G68" t="n">
-        <v>21579.20315457186</v>
+        <v>21493.47825924869</v>
       </c>
       <c r="H68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="I68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="J68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="K68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="L68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="M68" t="n">
-        <v>-659.3254028101505</v>
+        <v>-719.0467281915438</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>20710.51992967131</v>
+        <v>20621.54628414107</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>45017</v>
       </c>
       <c r="C69" t="n">
-        <v>21117.13455911643</v>
+        <v>21081.55274879794</v>
       </c>
       <c r="D69" t="n">
-        <v>16777.38108864197</v>
+        <v>16848.48255717779</v>
       </c>
       <c r="E69" t="n">
-        <v>21492.83341355834</v>
+        <v>21310.00563596301</v>
       </c>
       <c r="F69" t="n">
-        <v>20841.12779828762</v>
+        <v>20851.32887247383</v>
       </c>
       <c r="G69" t="n">
-        <v>21360.50246834102</v>
+        <v>21263.69159436835</v>
       </c>
       <c r="H69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="I69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="J69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="K69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="L69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="M69" t="n">
-        <v>-1953.57979110787</v>
+        <v>-1996.332403392627</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>19163.55476800856</v>
+        <v>19085.22034540531</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>45047</v>
       </c>
       <c r="C70" t="n">
-        <v>20872.57574618253</v>
+        <v>20830.86862279664</v>
       </c>
       <c r="D70" t="n">
-        <v>17819.43916707129</v>
+        <v>17634.41131530997</v>
       </c>
       <c r="E70" t="n">
-        <v>22364.90127117943</v>
+        <v>22250.29089944332</v>
       </c>
       <c r="F70" t="n">
-        <v>20569.99674058302</v>
+        <v>20563.37514256999</v>
       </c>
       <c r="G70" t="n">
-        <v>21149.83733548594</v>
+        <v>21052.13504959944</v>
       </c>
       <c r="H70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="I70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="J70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="K70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="L70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="M70" t="n">
-        <v>-763.943180610527</v>
+        <v>-807.2772489056216</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>20108.632565572</v>
+        <v>20023.59137389102</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>45078</v>
       </c>
       <c r="C71" t="n">
-        <v>20619.8649728175</v>
+        <v>20571.82835926196</v>
       </c>
       <c r="D71" t="n">
-        <v>16218.96045848471</v>
+        <v>16295.50572461252</v>
       </c>
       <c r="E71" t="n">
-        <v>20975.27903387259</v>
+        <v>21070.72319693304</v>
       </c>
       <c r="F71" t="n">
-        <v>20266.88341292373</v>
+        <v>20263.32147730792</v>
       </c>
       <c r="G71" t="n">
-        <v>20929.52417736414</v>
+        <v>20834.75019640009</v>
       </c>
       <c r="H71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="I71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="J71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="K71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="L71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="M71" t="n">
-        <v>-1956.783980530755</v>
+        <v>-1768.059594443837</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>18663.08099228674</v>
+        <v>18803.76876481812</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>45108</v>
       </c>
       <c r="C72" t="n">
-        <v>20375.30615988359</v>
+        <v>20321.14423326066</v>
       </c>
       <c r="D72" t="n">
-        <v>19815.79528415399</v>
+        <v>19892.98621384832</v>
       </c>
       <c r="E72" t="n">
-        <v>24589.83248414359</v>
+        <v>24411.07376079767</v>
       </c>
       <c r="F72" t="n">
-        <v>19974.4259731891</v>
+        <v>19970.46434828238</v>
       </c>
       <c r="G72" t="n">
-        <v>20725.85820407965</v>
+        <v>20620.69828100476</v>
       </c>
       <c r="H72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="I72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="J72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="K72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="L72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="M72" t="n">
-        <v>1884.682525144693</v>
+        <v>1855.056002907581</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>22259.98868502829</v>
+        <v>22176.20023616824</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>45139</v>
       </c>
       <c r="C73" t="n">
-        <v>20122.59538651856</v>
+        <v>20062.10396972598</v>
       </c>
       <c r="D73" t="n">
-        <v>20686.16281793012</v>
+        <v>20496.71698334758</v>
       </c>
       <c r="E73" t="n">
-        <v>25337.55530286067</v>
+        <v>25092.63601443432</v>
       </c>
       <c r="F73" t="n">
-        <v>19679.4720051658</v>
+        <v>19661.54787998205</v>
       </c>
       <c r="G73" t="n">
-        <v>20505.66319442987</v>
+        <v>20396.97694005015</v>
       </c>
       <c r="H73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="I73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="J73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="K73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="L73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="M73" t="n">
-        <v>2858.549851043451</v>
+        <v>2808.60891042089</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>22981.14523756201</v>
+        <v>22870.71288014687</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>45170</v>
       </c>
       <c r="C74" t="n">
-        <v>19869.88461315353</v>
+        <v>19803.0637061913</v>
       </c>
       <c r="D74" t="n">
-        <v>16999.21020924083</v>
+        <v>16920.39754997381</v>
       </c>
       <c r="E74" t="n">
-        <v>21833.63057623403</v>
+        <v>21930.41894818288</v>
       </c>
       <c r="F74" t="n">
-        <v>19383.30264290225</v>
+        <v>19352.23417381997</v>
       </c>
       <c r="G74" t="n">
-        <v>20288.6949087366</v>
+        <v>20181.22617908838</v>
       </c>
       <c r="H74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="I74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="J74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="K74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="L74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="M74" t="n">
-        <v>-281.125117337216</v>
+        <v>-352.5853250959144</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>19588.75949581631</v>
+        <v>19450.47838109538</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>45200</v>
       </c>
       <c r="C75" t="n">
-        <v>19625.32580021962</v>
+        <v>19552.37958018999</v>
       </c>
       <c r="D75" t="n">
-        <v>18421.14615648496</v>
+        <v>18253.40784390547</v>
       </c>
       <c r="E75" t="n">
-        <v>23135.08820199821</v>
+        <v>22942.8500220664</v>
       </c>
       <c r="F75" t="n">
-        <v>19085.91900616655</v>
+        <v>19053.78818334675</v>
       </c>
       <c r="G75" t="n">
-        <v>20075.9614964226</v>
+        <v>19961.87245604564</v>
       </c>
       <c r="H75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="I75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="J75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="K75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="L75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="M75" t="n">
-        <v>1151.64584387318</v>
+        <v>1074.562131743632</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,60 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>20776.9716440928</v>
+        <v>20626.94171193362</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C76" t="n">
+        <v>19293.33931665531</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15505.35774216238</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20274.26727219326</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18745.26902175458</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19741.78775458612</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-1351.395140347888</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>17941.94417630742</v>
       </c>
     </row>
   </sheetData>
